--- a/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.002248715505515</v>
+      </c>
+      <c r="D3">
         <v>1.003164138515666</v>
       </c>
-      <c r="D3">
-        <v>0.9906823609052631</v>
-      </c>
       <c r="E3">
+        <v>0.9951561199207971</v>
+      </c>
+      <c r="F3">
+        <v>1.004778412393852</v>
+      </c>
+      <c r="G3">
+        <v>0.9906823609052632</v>
+      </c>
+      <c r="H3">
+        <v>1.003164138515666</v>
+      </c>
+      <c r="I3">
         <v>1.001871998805652</v>
       </c>
-      <c r="F3">
-        <v>1.003164138515666</v>
-      </c>
-      <c r="G3">
-        <v>1.004778412393852</v>
-      </c>
-      <c r="H3">
-        <v>0.9951561199207971</v>
-      </c>
-      <c r="I3">
-        <v>1.002248715505515</v>
-      </c>
       <c r="J3">
-        <v>0.9906823609052631</v>
+        <v>0.9906823609052632</v>
       </c>
       <c r="K3">
         <v>1.003164138515666</v>
@@ -704,31 +656,31 @@
         <v>1.001871998805652</v>
       </c>
       <c r="M3">
-        <v>0.9962771798554576</v>
+        <v>0.9962771798554577</v>
       </c>
       <c r="N3">
-        <v>0.9962771798554576</v>
+        <v>0.9962771798554577</v>
       </c>
       <c r="O3">
         <v>0.9959034932105708</v>
       </c>
       <c r="P3">
-        <v>0.9985728327421938</v>
+        <v>0.998572832742194</v>
       </c>
       <c r="Q3">
-        <v>0.9985728327421938</v>
+        <v>0.998572832742194</v>
       </c>
       <c r="R3">
-        <v>0.9997206591855619</v>
+        <v>0.9997206591855621</v>
       </c>
       <c r="S3">
-        <v>0.9997206591855619</v>
+        <v>0.9997206591855621</v>
       </c>
       <c r="T3">
-        <v>0.9996502910077908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.999650291007791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.004338887783865</v>
+      </c>
+      <c r="D4">
         <v>1.006063672915784</v>
       </c>
-      <c r="D4">
-        <v>0.9820332105029347</v>
-      </c>
       <c r="E4">
+        <v>0.9906508297256662</v>
+      </c>
+      <c r="F4">
+        <v>1.009268998854186</v>
+      </c>
+      <c r="G4">
+        <v>0.9820332105029348</v>
+      </c>
+      <c r="H4">
+        <v>1.006063672915784</v>
+      </c>
+      <c r="I4">
         <v>1.003629097402164</v>
       </c>
-      <c r="F4">
-        <v>1.006063672915784</v>
-      </c>
-      <c r="G4">
-        <v>1.009268998854186</v>
-      </c>
-      <c r="H4">
-        <v>0.9906508297256662</v>
-      </c>
-      <c r="I4">
-        <v>1.004338887783865</v>
-      </c>
       <c r="J4">
-        <v>0.9820332105029347</v>
+        <v>0.9820332105029348</v>
       </c>
       <c r="K4">
         <v>1.006063672915784</v>
@@ -766,16 +718,16 @@
         <v>1.003629097402164</v>
       </c>
       <c r="M4">
-        <v>0.9928311539525492</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="N4">
-        <v>0.9928311539525492</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="O4">
         <v>0.992104379210255</v>
       </c>
       <c r="P4">
-        <v>0.9972419936069606</v>
+        <v>0.9972419936069609</v>
       </c>
       <c r="Q4">
         <v>0.9972419936069609</v>
@@ -790,7 +742,7 @@
         <v>0.9993307828640999</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.008308435030938</v>
+      </c>
+      <c r="D5">
         <v>1.011541431501804</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9820855800049989</v>
+      </c>
+      <c r="F5">
+        <v>1.017855980315239</v>
+      </c>
+      <c r="G5">
         <v>0.9656274615551157</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>1.011541431501804</v>
+      </c>
+      <c r="I5">
         <v>1.006977985033471</v>
-      </c>
-      <c r="F5">
-        <v>1.011541431501804</v>
-      </c>
-      <c r="G5">
-        <v>1.017855980315239</v>
-      </c>
-      <c r="H5">
-        <v>0.9820855800049989</v>
-      </c>
-      <c r="I5">
-        <v>1.008308435030938</v>
       </c>
       <c r="J5">
         <v>0.9656274615551157</v>
@@ -852,7 +804,7 @@
         <v>0.9987328122402611</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.012181111450275</v>
+      </c>
+      <c r="D6">
         <v>1.016872161813242</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.9737266793309755</v>
+      </c>
+      <c r="F6">
+        <v>1.026255321616036</v>
+      </c>
+      <c r="G6">
         <v>0.9496288794925696</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>1.016872161813242</v>
+      </c>
+      <c r="I6">
         <v>1.010250641767349</v>
-      </c>
-      <c r="F6">
-        <v>1.016872161813242</v>
-      </c>
-      <c r="G6">
-        <v>1.026255321616036</v>
-      </c>
-      <c r="H6">
-        <v>0.9737266793309755</v>
-      </c>
-      <c r="I6">
-        <v>1.012181111450275</v>
       </c>
       <c r="J6">
         <v>0.9496288794925696</v>
@@ -914,7 +866,7 @@
         <v>0.9981524659117412</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.00014998254866</v>
+      </c>
+      <c r="D7">
         <v>1.000071773946192</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.99965989118315</v>
+      </c>
+      <c r="F7">
+        <v>1.000508662062752</v>
+      </c>
+      <c r="G7">
         <v>0.9994299618862946</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>1.000071773946192</v>
+      </c>
+      <c r="I7">
         <v>1.000182168223284</v>
-      </c>
-      <c r="F7">
-        <v>1.000071773946192</v>
-      </c>
-      <c r="G7">
-        <v>1.000508662062752</v>
-      </c>
-      <c r="H7">
-        <v>0.9996598911831499</v>
-      </c>
-      <c r="I7">
-        <v>1.00014998254866</v>
       </c>
       <c r="J7">
         <v>0.9994299618862946</v>
@@ -976,7 +928,7 @@
         <v>1.000000406641722</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.00038263712978</v>
+      </c>
+      <c r="D8">
         <v>1.00018634915213</v>
       </c>
-      <c r="D8">
-        <v>0.9985438923155752</v>
-      </c>
       <c r="E8">
+        <v>0.9991330673832198</v>
+      </c>
+      <c r="F8">
+        <v>1.001292031133793</v>
+      </c>
+      <c r="G8">
+        <v>0.9985438923155754</v>
+      </c>
+      <c r="H8">
+        <v>1.00018634915213</v>
+      </c>
+      <c r="I8">
         <v>1.00046341514172</v>
       </c>
-      <c r="F8">
-        <v>1.00018634915213</v>
-      </c>
-      <c r="G8">
-        <v>1.001292031133793</v>
-      </c>
-      <c r="H8">
-        <v>0.9991330673832196</v>
-      </c>
-      <c r="I8">
-        <v>1.00038263712978</v>
-      </c>
       <c r="J8">
-        <v>0.9985438923155752</v>
+        <v>0.9985438923155754</v>
       </c>
       <c r="K8">
         <v>1.00018634915213</v>
@@ -1014,31 +966,31 @@
         <v>1.00046341514172</v>
       </c>
       <c r="M8">
-        <v>0.9995036537286476</v>
+        <v>0.9995036537286478</v>
       </c>
       <c r="N8">
-        <v>0.9995036537286476</v>
+        <v>0.9995036537286478</v>
       </c>
       <c r="O8">
-        <v>0.9993801249468383</v>
+        <v>0.9993801249468385</v>
       </c>
       <c r="P8">
-        <v>0.9997312188698082</v>
+        <v>0.9997312188698085</v>
       </c>
       <c r="Q8">
-        <v>0.9997312188698082</v>
+        <v>0.9997312188698085</v>
       </c>
       <c r="R8">
-        <v>0.9998450014403886</v>
+        <v>0.9998450014403888</v>
       </c>
       <c r="S8">
-        <v>0.9998450014403886</v>
+        <v>0.9998450014403888</v>
       </c>
       <c r="T8">
         <v>1.000000232042703</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000536623211195</v>
+      </c>
+      <c r="D9">
         <v>1.0002712416593</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9987859045989792</v>
+      </c>
+      <c r="F9">
+        <v>1.001796701853688</v>
+      </c>
+      <c r="G9">
         <v>0.9979533613212735</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>1.0002712416593</v>
+      </c>
+      <c r="I9">
         <v>1.000645833984457</v>
-      </c>
-      <c r="F9">
-        <v>1.0002712416593</v>
-      </c>
-      <c r="G9">
-        <v>1.001796701853688</v>
-      </c>
-      <c r="H9">
-        <v>0.9987859045989789</v>
-      </c>
-      <c r="I9">
-        <v>1.000536623211195</v>
       </c>
       <c r="J9">
         <v>0.9979533613212735</v>
@@ -1100,7 +1052,7 @@
         <v>0.999998277771482</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.001156894298918</v>
+      </c>
+      <c r="D10">
         <v>1.000583635060373</v>
       </c>
-      <c r="D10">
-        <v>0.9955886621653676</v>
-      </c>
       <c r="E10">
+        <v>0.997382106377165</v>
+      </c>
+      <c r="F10">
+        <v>1.003876114896152</v>
+      </c>
+      <c r="G10">
+        <v>0.9955886621653677</v>
+      </c>
+      <c r="H10">
+        <v>1.000583635060373</v>
+      </c>
+      <c r="I10">
         <v>1.001392803656429</v>
       </c>
-      <c r="F10">
-        <v>1.000583635060373</v>
-      </c>
-      <c r="G10">
-        <v>1.003876114896152</v>
-      </c>
-      <c r="H10">
-        <v>0.9973821063771648</v>
-      </c>
-      <c r="I10">
-        <v>1.001156894298918</v>
-      </c>
       <c r="J10">
-        <v>0.9955886621653676</v>
+        <v>0.9955886621653677</v>
       </c>
       <c r="K10">
         <v>1.000583635060373</v>
@@ -1138,10 +1090,10 @@
         <v>1.001392803656429</v>
       </c>
       <c r="M10">
-        <v>0.9984907329108984</v>
+        <v>0.9984907329108985</v>
       </c>
       <c r="N10">
-        <v>0.9984907329108984</v>
+        <v>0.9984907329108985</v>
       </c>
       <c r="O10">
         <v>0.9981211907329873</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999967027424007</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.00192111481096</v>
+      </c>
+      <c r="D11">
         <v>1.000990063320019</v>
       </c>
-      <c r="D11">
-        <v>0.992663859997755</v>
-      </c>
       <c r="E11">
+        <v>0.9956570745682651</v>
+      </c>
+      <c r="F11">
+        <v>1.006401996316657</v>
+      </c>
+      <c r="G11">
+        <v>0.9926638599977547</v>
+      </c>
+      <c r="H11">
+        <v>1.000990063320019</v>
+      </c>
+      <c r="I11">
         <v>1.002304263090332</v>
       </c>
-      <c r="F11">
-        <v>1.000990063320019</v>
-      </c>
-      <c r="G11">
-        <v>1.006401996316657</v>
-      </c>
-      <c r="H11">
-        <v>0.9956570745682651</v>
-      </c>
-      <c r="I11">
-        <v>1.00192111481096</v>
-      </c>
       <c r="J11">
-        <v>0.992663859997755</v>
+        <v>0.9926638599977547</v>
       </c>
       <c r="K11">
         <v>1.000990063320019</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999897286839982</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9836145422628851</v>
+      </c>
+      <c r="D12">
         <v>1.000686080058187</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.038172774574788</v>
+      </c>
+      <c r="F12">
+        <v>0.9328914451111769</v>
+      </c>
+      <c r="G12">
         <v>1.059174048155853</v>
       </c>
-      <c r="E12">
+      <c r="H12">
+        <v>1.000686080058187</v>
+      </c>
+      <c r="I12">
         <v>0.9765892316818462</v>
-      </c>
-      <c r="F12">
-        <v>1.000686080058187</v>
-      </c>
-      <c r="G12">
-        <v>0.9328914451111769</v>
-      </c>
-      <c r="H12">
-        <v>1.038172774574788</v>
-      </c>
-      <c r="I12">
-        <v>0.9836145422628851</v>
       </c>
       <c r="J12">
         <v>1.059174048155853</v>
@@ -1277,16 +1229,16 @@
         <v>1.012149786631962</v>
       </c>
       <c r="R12">
-        <v>1.009283859988519</v>
+        <v>1.009283859988518</v>
       </c>
       <c r="S12">
-        <v>1.009283859988519</v>
+        <v>1.009283859988518</v>
       </c>
       <c r="T12">
         <v>0.9985213536407894</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9876536891912985</v>
+        <v>0.9949101431603906</v>
       </c>
       <c r="D13">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="E13">
+        <v>1.010273019781603</v>
+      </c>
+      <c r="F13">
+        <v>0.9964549133227598</v>
+      </c>
+      <c r="G13">
         <v>1.023103828471014</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="I13">
         <v>0.997896346735736</v>
-      </c>
-      <c r="F13">
-        <v>0.9876536891912985</v>
-      </c>
-      <c r="G13">
-        <v>0.99645491332276</v>
-      </c>
-      <c r="H13">
-        <v>1.010273019781603</v>
-      </c>
-      <c r="I13">
-        <v>0.9949101431603904</v>
       </c>
       <c r="J13">
         <v>1.023103828471014</v>
       </c>
       <c r="K13">
-        <v>0.9876536891912985</v>
+        <v>0.9876536891912983</v>
       </c>
       <c r="L13">
         <v>0.997896346735736</v>
@@ -1339,16 +1291,16 @@
         <v>1.002884621466016</v>
       </c>
       <c r="R13">
-        <v>0.9990768883973367</v>
+        <v>0.9990768883973365</v>
       </c>
       <c r="S13">
-        <v>0.9990768883973367</v>
+        <v>0.9990768883973365</v>
       </c>
       <c r="T13">
         <v>1.0017153234438</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9837122756878457</v>
+      </c>
+      <c r="D14">
         <v>1.001512414148788</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>1.03816226555251</v>
+      </c>
+      <c r="F14">
+        <v>0.9317531221109095</v>
+      </c>
+      <c r="G14">
         <v>1.058311512421291</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>1.001512414148788</v>
+      </c>
+      <c r="I14">
         <v>0.9763871249054838</v>
-      </c>
-      <c r="F14">
-        <v>1.001512414148788</v>
-      </c>
-      <c r="G14">
-        <v>0.9317531221109095</v>
-      </c>
-      <c r="H14">
-        <v>1.03816226555251</v>
-      </c>
-      <c r="I14">
-        <v>0.9837122756878458</v>
       </c>
       <c r="J14">
         <v>1.058311512421291</v>
@@ -1410,7 +1362,7 @@
         <v>0.9983064524711378</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9948449706986171</v>
+      </c>
+      <c r="D15">
         <v>0.9874287480611282</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>1.010256403974374</v>
+      </c>
+      <c r="F15">
+        <v>0.9969922374555918</v>
+      </c>
+      <c r="G15">
         <v>1.023670121237644</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>0.9874287480611282</v>
+      </c>
+      <c r="I15">
         <v>0.9978969190310238</v>
-      </c>
-      <c r="F15">
-        <v>0.9874287480611282</v>
-      </c>
-      <c r="G15">
-        <v>0.9969922374555918</v>
-      </c>
-      <c r="H15">
-        <v>1.010256403974374</v>
-      </c>
-      <c r="I15">
-        <v>0.9948449706986171</v>
       </c>
       <c r="J15">
         <v>1.023670121237644</v>
@@ -1472,7 +1424,7 @@
         <v>1.00184823340973</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000114428560579</v>
+        <v>1.043724890742761</v>
       </c>
       <c r="D16">
-        <v>0.999913423338075</v>
+        <v>1.059546449020202</v>
       </c>
       <c r="E16">
-        <v>0.9999733154094084</v>
+        <v>0.905598378844616</v>
       </c>
       <c r="F16">
-        <v>1.000114428560579</v>
+        <v>1.095518259806546</v>
       </c>
       <c r="G16">
-        <v>0.9999185083771348</v>
+        <v>0.8195079950082309</v>
       </c>
       <c r="H16">
-        <v>0.9999757755742921</v>
+        <v>1.059546449020202</v>
       </c>
       <c r="I16">
-        <v>1.000014455737446</v>
+        <v>1.037213964220833</v>
       </c>
       <c r="J16">
-        <v>0.999913423338075</v>
+        <v>0.8195079950082309</v>
       </c>
       <c r="K16">
-        <v>1.000114428560579</v>
+        <v>1.059546449020202</v>
       </c>
       <c r="L16">
-        <v>0.9999733154094084</v>
+        <v>1.037213964220833</v>
       </c>
       <c r="M16">
-        <v>0.9999433693737416</v>
+        <v>0.9283609796145318</v>
       </c>
       <c r="N16">
-        <v>0.9999433693737416</v>
+        <v>0.9283609796145318</v>
       </c>
       <c r="O16">
-        <v>0.9999541714405917</v>
+        <v>0.9207734460245599</v>
       </c>
       <c r="P16">
-        <v>1.000000389102687</v>
+        <v>0.9720894694164217</v>
       </c>
       <c r="Q16">
-        <v>1.000000389102687</v>
+        <v>0.9720894694164217</v>
       </c>
       <c r="R16">
-        <v>1.00002889896716</v>
+        <v>0.9939537143173667</v>
       </c>
       <c r="S16">
-        <v>1.00002889896716</v>
+        <v>0.9939537143173667</v>
       </c>
       <c r="T16">
-        <v>0.999984984499489</v>
+        <v>0.9935183229405312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998824896140652</v>
+        <v>1.035433165318895</v>
       </c>
       <c r="D17">
-        <v>0.9994112931352556</v>
+        <v>1.043560161497975</v>
       </c>
       <c r="E17">
-        <v>1.000291100118202</v>
+        <v>0.922927404319445</v>
       </c>
       <c r="F17">
-        <v>0.9998824896140652</v>
+        <v>1.083802543444925</v>
       </c>
       <c r="G17">
-        <v>1.000838018215422</v>
+        <v>0.8554661508713234</v>
       </c>
       <c r="H17">
-        <v>0.9995906454467812</v>
+        <v>1.043560161497975</v>
       </c>
       <c r="I17">
-        <v>1.000171970726907</v>
+        <v>1.032088724253843</v>
       </c>
       <c r="J17">
-        <v>0.9994112931352556</v>
+        <v>0.8554661508713234</v>
       </c>
       <c r="K17">
-        <v>0.9998824896140652</v>
+        <v>1.043560161497975</v>
       </c>
       <c r="L17">
-        <v>1.000291100118202</v>
+        <v>1.032088724253843</v>
       </c>
       <c r="M17">
-        <v>0.9998511966267285</v>
+        <v>0.9437774375625834</v>
       </c>
       <c r="N17">
-        <v>0.9998511966267285</v>
+        <v>0.9437774375625834</v>
       </c>
       <c r="O17">
-        <v>0.9997643462334128</v>
+        <v>0.9368274264815373</v>
       </c>
       <c r="P17">
-        <v>0.9998616276225074</v>
+        <v>0.9770383455410472</v>
       </c>
       <c r="Q17">
-        <v>0.9998616276225074</v>
+        <v>0.9770383455410471</v>
       </c>
       <c r="R17">
-        <v>0.9998668431203969</v>
+        <v>0.993668799530279</v>
       </c>
       <c r="S17">
-        <v>0.9998668431203969</v>
+        <v>0.993668799530279</v>
       </c>
       <c r="T17">
-        <v>1.000030919542772</v>
+        <v>0.9955463582844009</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001444563755097</v>
+        <v>1.018776135543279</v>
       </c>
       <c r="D18">
-        <v>0.9968774809113022</v>
+        <v>1.011646454918089</v>
       </c>
       <c r="E18">
-        <v>1.000421718592845</v>
+        <v>0.9577647742196964</v>
       </c>
       <c r="F18">
-        <v>1.001444563755097</v>
+        <v>1.059989867027006</v>
       </c>
       <c r="G18">
-        <v>1.000980868695259</v>
+        <v>0.9276256835013506</v>
       </c>
       <c r="H18">
-        <v>0.9984907135441722</v>
+        <v>1.011646454918089</v>
       </c>
       <c r="I18">
-        <v>1.000719922892986</v>
+        <v>1.02171015991779</v>
       </c>
       <c r="J18">
-        <v>0.9968774809113022</v>
+        <v>0.9276256835013506</v>
       </c>
       <c r="K18">
-        <v>1.001444563755097</v>
+        <v>1.011646454918089</v>
       </c>
       <c r="L18">
-        <v>1.000421718592845</v>
+        <v>1.02171015991779</v>
       </c>
       <c r="M18">
-        <v>0.9986495997520739</v>
+        <v>0.9746679217095703</v>
       </c>
       <c r="N18">
-        <v>0.9986495997520739</v>
+        <v>0.9746679217095703</v>
       </c>
       <c r="O18">
-        <v>0.9985966376827733</v>
+        <v>0.9690335392129455</v>
       </c>
       <c r="P18">
-        <v>0.9995812544197484</v>
+        <v>0.9869940994457433</v>
       </c>
       <c r="Q18">
-        <v>0.9995812544197484</v>
+        <v>0.9869940994457433</v>
       </c>
       <c r="R18">
-        <v>1.000047081753586</v>
+        <v>0.9931571883138299</v>
       </c>
       <c r="S18">
-        <v>1.000047081753586</v>
+        <v>0.9931571883138299</v>
       </c>
       <c r="T18">
-        <v>0.9998225447319439</v>
+        <v>0.999585512521202</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.020315314734954</v>
+      </c>
+      <c r="D19">
+        <v>1.010276505541424</v>
+      </c>
+      <c r="E19">
+        <v>0.9539700736059684</v>
+      </c>
+      <c r="F19">
+        <v>1.068247316814066</v>
+      </c>
+      <c r="G19">
+        <v>0.9226356214915765</v>
+      </c>
+      <c r="H19">
+        <v>1.010276505541424</v>
+      </c>
+      <c r="I19">
+        <v>1.024446510033976</v>
+      </c>
+      <c r="J19">
+        <v>0.9226356214915765</v>
+      </c>
+      <c r="K19">
+        <v>1.010276505541424</v>
+      </c>
+      <c r="L19">
+        <v>1.024446510033976</v>
+      </c>
+      <c r="M19">
+        <v>0.9735410657627764</v>
+      </c>
+      <c r="N19">
+        <v>0.9735410657627764</v>
+      </c>
+      <c r="O19">
+        <v>0.9670174017105072</v>
+      </c>
+      <c r="P19">
+        <v>0.985786212355659</v>
+      </c>
+      <c r="Q19">
+        <v>0.985786212355659</v>
+      </c>
+      <c r="R19">
+        <v>0.9919087856521004</v>
+      </c>
+      <c r="S19">
+        <v>0.9919087856521004</v>
+      </c>
+      <c r="T19">
+        <v>0.9999818903703277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000014455737446</v>
+      </c>
+      <c r="D20">
+        <v>1.000114428560579</v>
+      </c>
+      <c r="E20">
+        <v>0.9999757755742921</v>
+      </c>
+      <c r="F20">
+        <v>0.9999185083771348</v>
+      </c>
+      <c r="G20">
+        <v>0.999913423338075</v>
+      </c>
+      <c r="H20">
+        <v>1.000114428560579</v>
+      </c>
+      <c r="I20">
+        <v>0.9999733154094085</v>
+      </c>
+      <c r="J20">
+        <v>0.999913423338075</v>
+      </c>
+      <c r="K20">
+        <v>1.000114428560579</v>
+      </c>
+      <c r="L20">
+        <v>0.9999733154094085</v>
+      </c>
+      <c r="M20">
+        <v>0.9999433693737417</v>
+      </c>
+      <c r="N20">
+        <v>0.9999433693737417</v>
+      </c>
+      <c r="O20">
+        <v>0.9999541714405918</v>
+      </c>
+      <c r="P20">
+        <v>1.000000389102687</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000389102687</v>
+      </c>
+      <c r="R20">
+        <v>1.00002889896716</v>
+      </c>
+      <c r="S20">
+        <v>1.00002889896716</v>
+      </c>
+      <c r="T20">
+        <v>0.999984984499489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000171970726907</v>
+      </c>
+      <c r="D21">
+        <v>0.9998824896140655</v>
+      </c>
+      <c r="E21">
+        <v>0.9995906454467812</v>
+      </c>
+      <c r="F21">
+        <v>1.000838018215422</v>
+      </c>
+      <c r="G21">
+        <v>0.9994112931352556</v>
+      </c>
+      <c r="H21">
+        <v>0.9998824896140655</v>
+      </c>
+      <c r="I21">
+        <v>1.000291100118202</v>
+      </c>
+      <c r="J21">
+        <v>0.9994112931352556</v>
+      </c>
+      <c r="K21">
+        <v>0.9998824896140655</v>
+      </c>
+      <c r="L21">
+        <v>1.000291100118202</v>
+      </c>
+      <c r="M21">
+        <v>0.9998511966267287</v>
+      </c>
+      <c r="N21">
+        <v>0.9998511966267287</v>
+      </c>
+      <c r="O21">
+        <v>0.9997643462334129</v>
+      </c>
+      <c r="P21">
+        <v>0.9998616276225075</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998616276225075</v>
+      </c>
+      <c r="R21">
+        <v>0.999866843120397</v>
+      </c>
+      <c r="S21">
+        <v>0.999866843120397</v>
+      </c>
+      <c r="T21">
+        <v>1.000030919542772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000719922892986</v>
+      </c>
+      <c r="D22">
+        <v>1.001444563755097</v>
+      </c>
+      <c r="E22">
+        <v>0.9984907135441724</v>
+      </c>
+      <c r="F22">
+        <v>1.000980868695259</v>
+      </c>
+      <c r="G22">
+        <v>0.9968774809113022</v>
+      </c>
+      <c r="H22">
+        <v>1.001444563755097</v>
+      </c>
+      <c r="I22">
+        <v>1.000421718592845</v>
+      </c>
+      <c r="J22">
+        <v>0.9968774809113022</v>
+      </c>
+      <c r="K22">
+        <v>1.001444563755097</v>
+      </c>
+      <c r="L22">
+        <v>1.000421718592845</v>
+      </c>
+      <c r="M22">
+        <v>0.9986495997520739</v>
+      </c>
+      <c r="N22">
+        <v>0.9986495997520739</v>
+      </c>
+      <c r="O22">
+        <v>0.9985966376827734</v>
+      </c>
+      <c r="P22">
+        <v>0.9995812544197484</v>
+      </c>
+      <c r="Q22">
+        <v>0.9995812544197484</v>
+      </c>
+      <c r="R22">
+        <v>1.000047081753586</v>
+      </c>
+      <c r="S22">
+        <v>1.000047081753586</v>
+      </c>
+      <c r="T22">
+        <v>0.9998225447319439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001760807693649</v>
+      </c>
+      <c r="D23">
         <v>1.004626842067034</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>0.9964175833875798</v>
+      </c>
+      <c r="F23">
+        <v>1.000994111155397</v>
+      </c>
+      <c r="G23">
         <v>0.9920024368242675</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.004626842067034</v>
+      </c>
+      <c r="I23">
         <v>1.000581371685945</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.9920024368242675</v>
+      </c>
+      <c r="K23">
         <v>1.004626842067034</v>
       </c>
-      <c r="G19">
-        <v>1.000994111155397</v>
-      </c>
-      <c r="H19">
-        <v>0.9964175833875798</v>
-      </c>
-      <c r="I19">
-        <v>1.001760807693649</v>
-      </c>
-      <c r="J19">
-        <v>0.9920024368242675</v>
-      </c>
-      <c r="K19">
-        <v>1.004626842067034</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000581371685945</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9962919042551062</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9962919042551062</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.996333797299264</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9990702168590823</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9990702168590823</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.00045937316107</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.00045937316107</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9993971921356454</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002248715505515</v>
+        <v>1.022240504243515</v>
       </c>
       <c r="D3">
-        <v>1.003164138515666</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="E3">
-        <v>0.9951561199207971</v>
+        <v>0.949971298623917</v>
       </c>
       <c r="F3">
-        <v>1.004778412393852</v>
+        <v>1.070956680972623</v>
       </c>
       <c r="G3">
-        <v>0.9906823609052632</v>
+        <v>0.9142559417867451</v>
       </c>
       <c r="H3">
-        <v>1.003164138515666</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="I3">
-        <v>1.001871998805652</v>
+        <v>1.025669951383289</v>
       </c>
       <c r="J3">
-        <v>0.9906823609052632</v>
+        <v>0.9142559417867451</v>
       </c>
       <c r="K3">
-        <v>1.003164138515666</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="L3">
-        <v>1.001871998805652</v>
+        <v>1.025669951383289</v>
       </c>
       <c r="M3">
-        <v>0.9962771798554577</v>
+        <v>0.9699629465850168</v>
       </c>
       <c r="N3">
-        <v>0.9962771798554577</v>
+        <v>0.9699629465850168</v>
       </c>
       <c r="O3">
-        <v>0.9959034932105708</v>
+        <v>0.9632990639313169</v>
       </c>
       <c r="P3">
-        <v>0.998572832742194</v>
+        <v>0.9846109453914527</v>
       </c>
       <c r="Q3">
-        <v>0.998572832742194</v>
+        <v>0.9846109453914527</v>
       </c>
       <c r="R3">
-        <v>0.9997206591855621</v>
+        <v>0.9919349447946706</v>
       </c>
       <c r="S3">
-        <v>0.9997206591855621</v>
+        <v>0.9919349447946706</v>
       </c>
       <c r="T3">
-        <v>0.999650291007791</v>
+        <v>0.9995002200024022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004338887783865</v>
+        <v>1.020344027383529</v>
       </c>
       <c r="D4">
-        <v>1.006063672915784</v>
+        <v>1.012594136556092</v>
       </c>
       <c r="E4">
-        <v>0.9906508297256662</v>
+        <v>0.9542270140067111</v>
       </c>
       <c r="F4">
-        <v>1.009268998854186</v>
+        <v>1.065060895216172</v>
       </c>
       <c r="G4">
-        <v>0.9820332105029348</v>
+        <v>0.9216051366660438</v>
       </c>
       <c r="H4">
-        <v>1.006063672915784</v>
+        <v>1.012594136556092</v>
       </c>
       <c r="I4">
-        <v>1.003629097402164</v>
+        <v>1.023533281917628</v>
       </c>
       <c r="J4">
-        <v>0.9820332105029348</v>
+        <v>0.9216051366660438</v>
       </c>
       <c r="K4">
-        <v>1.006063672915784</v>
+        <v>1.012594136556092</v>
       </c>
       <c r="L4">
-        <v>1.003629097402164</v>
+        <v>1.023533281917628</v>
       </c>
       <c r="M4">
-        <v>0.9928311539525493</v>
+        <v>0.9725692092918361</v>
       </c>
       <c r="N4">
-        <v>0.9928311539525493</v>
+        <v>0.9725692092918361</v>
       </c>
       <c r="O4">
-        <v>0.992104379210255</v>
+        <v>0.9664551441967945</v>
       </c>
       <c r="P4">
-        <v>0.9972419936069609</v>
+        <v>0.9859108517132547</v>
       </c>
       <c r="Q4">
-        <v>0.9972419936069609</v>
+        <v>0.9859108517132547</v>
       </c>
       <c r="R4">
-        <v>0.9994474134341667</v>
+        <v>0.9925816729239639</v>
       </c>
       <c r="S4">
-        <v>0.9994474134341667</v>
+        <v>0.9925816729239639</v>
       </c>
       <c r="T4">
-        <v>0.9993307828640999</v>
+        <v>0.9995607486243628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008308435030938</v>
+        <v>1.025844687008087</v>
       </c>
       <c r="D5">
-        <v>1.011541431501804</v>
+        <v>1.016350289595688</v>
       </c>
       <c r="E5">
-        <v>0.9820855800049989</v>
+        <v>0.9418777959568732</v>
       </c>
       <c r="F5">
-        <v>1.017855980315239</v>
+        <v>1.082229534420484</v>
       </c>
       <c r="G5">
-        <v>0.9656274615551157</v>
+        <v>0.9003070158490575</v>
       </c>
       <c r="H5">
-        <v>1.011541431501804</v>
+        <v>1.016350289595688</v>
       </c>
       <c r="I5">
-        <v>1.006977985033471</v>
+        <v>1.029751836118599</v>
       </c>
       <c r="J5">
-        <v>0.9656274615551157</v>
+        <v>0.9003070158490575</v>
       </c>
       <c r="K5">
-        <v>1.011541431501804</v>
+        <v>1.016350289595688</v>
       </c>
       <c r="L5">
-        <v>1.006977985033471</v>
+        <v>1.029751836118599</v>
       </c>
       <c r="M5">
-        <v>0.9863027232942936</v>
+        <v>0.9650294259838281</v>
       </c>
       <c r="N5">
-        <v>0.9863027232942936</v>
+        <v>0.9650294259838281</v>
       </c>
       <c r="O5">
-        <v>0.9848970088645287</v>
+        <v>0.9573122159748432</v>
       </c>
       <c r="P5">
-        <v>0.9947156260301305</v>
+        <v>0.9821363805211148</v>
       </c>
       <c r="Q5">
-        <v>0.9947156260301305</v>
+        <v>0.9821363805211148</v>
       </c>
       <c r="R5">
-        <v>0.9989220773980489</v>
+        <v>0.9906898577897583</v>
       </c>
       <c r="S5">
-        <v>0.9989220773980489</v>
+        <v>0.9906898577897583</v>
       </c>
       <c r="T5">
-        <v>0.9987328122402611</v>
+        <v>0.9993935264914647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.012181111450275</v>
+        <v>1.029212953125001</v>
       </c>
       <c r="D6">
-        <v>1.016872161813242</v>
+        <v>1.018572401875001</v>
       </c>
       <c r="E6">
-        <v>0.9737266793309755</v>
+        <v>0.9343073311363642</v>
       </c>
       <c r="F6">
-        <v>1.026255321616036</v>
+        <v>1.092845481761364</v>
       </c>
       <c r="G6">
-        <v>0.9496288794925696</v>
+        <v>0.8872924534659087</v>
       </c>
       <c r="H6">
-        <v>1.016872161813242</v>
+        <v>1.018572401875001</v>
       </c>
       <c r="I6">
-        <v>1.010250641767349</v>
+        <v>1.033591765113635</v>
       </c>
       <c r="J6">
-        <v>0.9496288794925696</v>
+        <v>0.8872924534659087</v>
       </c>
       <c r="K6">
-        <v>1.016872161813242</v>
+        <v>1.018572401875001</v>
       </c>
       <c r="L6">
-        <v>1.010250641767349</v>
+        <v>1.033591765113635</v>
       </c>
       <c r="M6">
-        <v>0.9799397606299592</v>
+        <v>0.9604421092897719</v>
       </c>
       <c r="N6">
-        <v>0.9799397606299592</v>
+        <v>0.9604421092897719</v>
       </c>
       <c r="O6">
-        <v>0.9778687335302979</v>
+        <v>0.9517305165719693</v>
       </c>
       <c r="P6">
-        <v>0.9922505610243867</v>
+        <v>0.9798188734848482</v>
       </c>
       <c r="Q6">
-        <v>0.9922505610243867</v>
+        <v>0.9798188734848482</v>
       </c>
       <c r="R6">
-        <v>0.9984059612216004</v>
+        <v>0.9895072555823863</v>
       </c>
       <c r="S6">
-        <v>0.9984059612216004</v>
+        <v>0.9895072555823863</v>
       </c>
       <c r="T6">
-        <v>0.9981524659117412</v>
+        <v>0.9993037310795455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00014998254866</v>
+        <v>1.011294898929593</v>
       </c>
       <c r="D7">
-        <v>1.000071773946192</v>
+        <v>0.9933765008729073</v>
       </c>
       <c r="E7">
-        <v>0.99965989118315</v>
+        <v>0.9726136131579033</v>
       </c>
       <c r="F7">
-        <v>1.000508662062752</v>
+        <v>1.055774645975813</v>
       </c>
       <c r="G7">
-        <v>0.9994299618862946</v>
+        <v>0.9620437691526889</v>
       </c>
       <c r="H7">
-        <v>1.000071773946192</v>
+        <v>0.9933765008729073</v>
       </c>
       <c r="I7">
-        <v>1.000182168223284</v>
+        <v>1.018668724667349</v>
       </c>
       <c r="J7">
-        <v>0.9994299618862946</v>
+        <v>0.9620437691526889</v>
       </c>
       <c r="K7">
-        <v>1.000071773946192</v>
+        <v>0.9933765008729073</v>
       </c>
       <c r="L7">
-        <v>1.000182168223284</v>
+        <v>1.018668724667349</v>
       </c>
       <c r="M7">
-        <v>0.9998060650547891</v>
+        <v>0.990356246910019</v>
       </c>
       <c r="N7">
-        <v>0.9998060650547891</v>
+        <v>0.990356246910019</v>
       </c>
       <c r="O7">
-        <v>0.9997573404309094</v>
+        <v>0.9844420356593138</v>
       </c>
       <c r="P7">
-        <v>0.9998946346852567</v>
+        <v>0.9913629982309818</v>
       </c>
       <c r="Q7">
-        <v>0.999894634685257</v>
+        <v>0.9913629982309818</v>
       </c>
       <c r="R7">
-        <v>0.9999389195004907</v>
+        <v>0.9918663738914631</v>
       </c>
       <c r="S7">
-        <v>0.9999389195004907</v>
+        <v>0.9918663738914631</v>
       </c>
       <c r="T7">
-        <v>1.000000406641722</v>
+        <v>1.002295358792709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00038263712978</v>
+        <v>1.011783353699083</v>
       </c>
       <c r="D8">
-        <v>1.00018634915213</v>
+        <v>0.9936405684352914</v>
       </c>
       <c r="E8">
-        <v>0.9991330673832198</v>
+        <v>0.9715123756995108</v>
       </c>
       <c r="F8">
-        <v>1.001292031133793</v>
+        <v>1.057380411990247</v>
       </c>
       <c r="G8">
-        <v>0.9985438923155754</v>
+        <v>0.9601713822499582</v>
       </c>
       <c r="H8">
-        <v>1.00018634915213</v>
+        <v>0.9936405684352914</v>
       </c>
       <c r="I8">
-        <v>1.00046341514172</v>
+        <v>1.01924951944167</v>
       </c>
       <c r="J8">
-        <v>0.9985438923155754</v>
+        <v>0.9601713822499582</v>
       </c>
       <c r="K8">
-        <v>1.00018634915213</v>
+        <v>0.9936405684352914</v>
       </c>
       <c r="L8">
-        <v>1.00046341514172</v>
+        <v>1.01924951944167</v>
       </c>
       <c r="M8">
-        <v>0.9995036537286478</v>
+        <v>0.9897104508458141</v>
       </c>
       <c r="N8">
-        <v>0.9995036537286478</v>
+        <v>0.9897104508458141</v>
       </c>
       <c r="O8">
-        <v>0.9993801249468385</v>
+        <v>0.9836444257970464</v>
       </c>
       <c r="P8">
-        <v>0.9997312188698085</v>
+        <v>0.9910204900423065</v>
       </c>
       <c r="Q8">
-        <v>0.9997312188698085</v>
+        <v>0.9910204900423065</v>
       </c>
       <c r="R8">
-        <v>0.9998450014403888</v>
+        <v>0.9916755096405527</v>
       </c>
       <c r="S8">
-        <v>0.9998450014403888</v>
+        <v>0.9916755096405527</v>
       </c>
       <c r="T8">
-        <v>1.000000232042703</v>
+        <v>1.002289601919294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000536623211195</v>
+        <v>1.012195509201194</v>
       </c>
       <c r="D9">
-        <v>1.0002712416593</v>
+        <v>0.993807837297695</v>
       </c>
       <c r="E9">
-        <v>0.9987859045989792</v>
+        <v>0.9705740697146797</v>
       </c>
       <c r="F9">
-        <v>1.001796701853688</v>
+        <v>1.058819169880815</v>
       </c>
       <c r="G9">
-        <v>0.9979533613212735</v>
+        <v>0.9586160093955736</v>
       </c>
       <c r="H9">
-        <v>1.0002712416593</v>
+        <v>0.993807837297695</v>
       </c>
       <c r="I9">
-        <v>1.000645833984457</v>
+        <v>1.019762450946067</v>
       </c>
       <c r="J9">
-        <v>0.9979533613212735</v>
+        <v>0.9586160093955736</v>
       </c>
       <c r="K9">
-        <v>1.0002712416593</v>
+        <v>0.993807837297695</v>
       </c>
       <c r="L9">
-        <v>1.000645833984457</v>
+        <v>1.019762450946067</v>
       </c>
       <c r="M9">
-        <v>0.9992995976528654</v>
+        <v>0.9891892301708205</v>
       </c>
       <c r="N9">
-        <v>0.9992995976528654</v>
+        <v>0.9891892301708205</v>
       </c>
       <c r="O9">
-        <v>0.9991283666349032</v>
+        <v>0.9829841766854402</v>
       </c>
       <c r="P9">
-        <v>0.9996234789883435</v>
+        <v>0.9907287658797787</v>
       </c>
       <c r="Q9">
-        <v>0.9996234789883435</v>
+        <v>0.9907287658797787</v>
       </c>
       <c r="R9">
-        <v>0.9997854196560827</v>
+        <v>0.9914985337342578</v>
       </c>
       <c r="S9">
-        <v>0.9997854196560827</v>
+        <v>0.9914985337342578</v>
       </c>
       <c r="T9">
-        <v>0.999998277771482</v>
+        <v>1.002295841072671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001156894298918</v>
+        <v>1.013182825663215</v>
       </c>
       <c r="D10">
-        <v>1.000583635060373</v>
+        <v>0.9943374135044397</v>
       </c>
       <c r="E10">
-        <v>0.997382106377165</v>
+        <v>0.9683536995489866</v>
       </c>
       <c r="F10">
-        <v>1.003876114896152</v>
+        <v>1.062049276735128</v>
       </c>
       <c r="G10">
-        <v>0.9955886621653677</v>
+        <v>0.9548222163481469</v>
       </c>
       <c r="H10">
-        <v>1.000583635060373</v>
+        <v>0.9943374135044397</v>
       </c>
       <c r="I10">
-        <v>1.001392803656429</v>
+        <v>1.020938136702527</v>
       </c>
       <c r="J10">
-        <v>0.9955886621653677</v>
+        <v>0.9548222163481469</v>
       </c>
       <c r="K10">
-        <v>1.000583635060373</v>
+        <v>0.9943374135044397</v>
       </c>
       <c r="L10">
-        <v>1.001392803656429</v>
+        <v>1.020938136702527</v>
       </c>
       <c r="M10">
-        <v>0.9984907329108985</v>
+        <v>0.9878801765253369</v>
       </c>
       <c r="N10">
-        <v>0.9984907329108985</v>
+        <v>0.9878801765253369</v>
       </c>
       <c r="O10">
-        <v>0.9981211907329873</v>
+        <v>0.9813713508665535</v>
       </c>
       <c r="P10">
-        <v>0.9991883669607233</v>
+        <v>0.9900325888517045</v>
       </c>
       <c r="Q10">
-        <v>0.9991883669607233</v>
+        <v>0.9900325888517045</v>
       </c>
       <c r="R10">
-        <v>0.9995371839856357</v>
+        <v>0.9911087950148884</v>
       </c>
       <c r="S10">
-        <v>0.9995371839856357</v>
+        <v>0.9911087950148884</v>
       </c>
       <c r="T10">
-        <v>0.9999967027424007</v>
+        <v>1.002280594750407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00192111481096</v>
+        <v>1.002450364507852</v>
       </c>
       <c r="D11">
-        <v>1.000990063320019</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="E11">
-        <v>0.9956570745682651</v>
+        <v>0.9947146402988527</v>
       </c>
       <c r="F11">
-        <v>1.006401996316657</v>
+        <v>1.005305824566335</v>
       </c>
       <c r="G11">
-        <v>0.9926638599977547</v>
+        <v>0.9898715290417044</v>
       </c>
       <c r="H11">
-        <v>1.000990063320019</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="I11">
-        <v>1.002304263090332</v>
+        <v>1.002072428356198</v>
       </c>
       <c r="J11">
-        <v>0.9926638599977547</v>
+        <v>0.9898715290417044</v>
       </c>
       <c r="K11">
-        <v>1.000990063320019</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="L11">
-        <v>1.002304263090332</v>
+        <v>1.002072428356198</v>
       </c>
       <c r="M11">
-        <v>0.9974840615440437</v>
+        <v>0.9959719786989513</v>
       </c>
       <c r="N11">
-        <v>0.9974840615440437</v>
+        <v>0.9959719786989513</v>
       </c>
       <c r="O11">
-        <v>0.9968750658854507</v>
+        <v>0.9955528658989184</v>
       </c>
       <c r="P11">
-        <v>0.9986527288027022</v>
+        <v>0.9984375706050245</v>
       </c>
       <c r="Q11">
-        <v>0.9986527288027022</v>
+        <v>0.9984375706050245</v>
       </c>
       <c r="R11">
-        <v>0.9992370624320315</v>
+        <v>0.9996703665580611</v>
       </c>
       <c r="S11">
-        <v>0.9992370624320315</v>
+        <v>0.9996703665580611</v>
       </c>
       <c r="T11">
-        <v>0.9999897286839982</v>
+        <v>0.9996305901980188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9836145422628851</v>
+        <v>1.001164564655859</v>
       </c>
       <c r="D12">
-        <v>1.000686080058187</v>
+        <v>1.001528435509371</v>
       </c>
       <c r="E12">
-        <v>1.038172774574788</v>
+        <v>0.997476433685921</v>
       </c>
       <c r="F12">
-        <v>0.9328914451111769</v>
+        <v>1.002630361781316</v>
       </c>
       <c r="G12">
-        <v>1.059174048155853</v>
+        <v>0.9952179706753005</v>
       </c>
       <c r="H12">
-        <v>1.000686080058187</v>
+        <v>1.001528435509371</v>
       </c>
       <c r="I12">
-        <v>0.9765892316818462</v>
+        <v>1.001014824551302</v>
       </c>
       <c r="J12">
-        <v>1.059174048155853</v>
+        <v>0.9952179706753005</v>
       </c>
       <c r="K12">
-        <v>1.000686080058187</v>
+        <v>1.001528435509371</v>
       </c>
       <c r="L12">
-        <v>0.9765892316818462</v>
+        <v>1.001014824551302</v>
       </c>
       <c r="M12">
-        <v>1.01788163991885</v>
+        <v>0.9981163976133012</v>
       </c>
       <c r="N12">
-        <v>1.01788163991885</v>
+        <v>0.9981163976133012</v>
       </c>
       <c r="O12">
-        <v>1.024645351470829</v>
+        <v>0.9979030763041745</v>
       </c>
       <c r="P12">
-        <v>1.012149786631962</v>
+        <v>0.9992537435786577</v>
       </c>
       <c r="Q12">
-        <v>1.012149786631962</v>
+        <v>0.9992537435786577</v>
       </c>
       <c r="R12">
-        <v>1.009283859988518</v>
+        <v>0.9998224165613361</v>
       </c>
       <c r="S12">
-        <v>1.009283859988518</v>
+        <v>0.9998224165613361</v>
       </c>
       <c r="T12">
-        <v>0.9985213536407894</v>
+        <v>0.9998387651431782</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9949101431603906</v>
+        <v>1.003932066299953</v>
       </c>
       <c r="D13">
-        <v>0.9876536891912983</v>
+        <v>1.005278669558715</v>
       </c>
       <c r="E13">
-        <v>1.010273019781603</v>
+        <v>0.9914935214477575</v>
       </c>
       <c r="F13">
-        <v>0.9964549133227598</v>
+        <v>1.008721239887576</v>
       </c>
       <c r="G13">
-        <v>1.023103828471014</v>
+        <v>0.9838107588994961</v>
       </c>
       <c r="H13">
-        <v>0.9876536891912983</v>
+        <v>1.005278669558715</v>
       </c>
       <c r="I13">
-        <v>0.997896346735736</v>
+        <v>1.003377904691767</v>
       </c>
       <c r="J13">
-        <v>1.023103828471014</v>
+        <v>0.9838107588994961</v>
       </c>
       <c r="K13">
-        <v>0.9876536891912983</v>
+        <v>1.005278669558715</v>
       </c>
       <c r="L13">
-        <v>0.997896346735736</v>
+        <v>1.003377904691767</v>
       </c>
       <c r="M13">
-        <v>1.010500087603375</v>
+        <v>0.9935943317956317</v>
       </c>
       <c r="N13">
-        <v>1.010500087603375</v>
+        <v>0.9935943317956317</v>
       </c>
       <c r="O13">
-        <v>1.010424398329451</v>
+        <v>0.9928940616796736</v>
       </c>
       <c r="P13">
-        <v>1.002884621466016</v>
+        <v>0.997489111049993</v>
       </c>
       <c r="Q13">
-        <v>1.002884621466016</v>
+        <v>0.9974891110499929</v>
       </c>
       <c r="R13">
-        <v>0.9990768883973365</v>
+        <v>0.9994365006771735</v>
       </c>
       <c r="S13">
-        <v>0.9990768883973365</v>
+        <v>0.9994365006771735</v>
       </c>
       <c r="T13">
-        <v>1.0017153234438</v>
+        <v>0.9994356934642109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9837122756878457</v>
+        <v>1.006259611695111</v>
       </c>
       <c r="D14">
-        <v>1.001512414148788</v>
+        <v>1.008660308256619</v>
       </c>
       <c r="E14">
-        <v>1.03816226555251</v>
+        <v>0.9864992979926076</v>
       </c>
       <c r="F14">
-        <v>0.9317531221109095</v>
+        <v>1.013499234666395</v>
       </c>
       <c r="G14">
-        <v>1.058311512421291</v>
+        <v>0.9741158380511724</v>
       </c>
       <c r="H14">
-        <v>1.001512414148788</v>
+        <v>1.008660308256619</v>
       </c>
       <c r="I14">
-        <v>0.9763871249054838</v>
+        <v>1.00527167308683</v>
       </c>
       <c r="J14">
-        <v>1.058311512421291</v>
+        <v>0.9741158380511724</v>
       </c>
       <c r="K14">
-        <v>1.001512414148788</v>
+        <v>1.008660308256619</v>
       </c>
       <c r="L14">
-        <v>0.9763871249054838</v>
+        <v>1.00527167308683</v>
       </c>
       <c r="M14">
-        <v>1.017349318663387</v>
+        <v>0.9896937555690011</v>
       </c>
       <c r="N14">
-        <v>1.017349318663387</v>
+        <v>0.9896937555690011</v>
       </c>
       <c r="O14">
-        <v>1.024286967626428</v>
+        <v>0.98862893637687</v>
       </c>
       <c r="P14">
-        <v>1.012070350491854</v>
+        <v>0.9960159397982068</v>
       </c>
       <c r="Q14">
-        <v>1.012070350491854</v>
+        <v>0.996015939798207</v>
       </c>
       <c r="R14">
-        <v>1.009430866406088</v>
+        <v>0.9991770319128099</v>
       </c>
       <c r="S14">
-        <v>1.009430866406088</v>
+        <v>0.9991770319128099</v>
       </c>
       <c r="T14">
-        <v>0.9983064524711378</v>
+        <v>0.9990509939581225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9948449706986171</v>
+        <v>1.002248715505515</v>
       </c>
       <c r="D15">
-        <v>0.9874287480611282</v>
+        <v>1.003164138515666</v>
       </c>
       <c r="E15">
-        <v>1.010256403974374</v>
+        <v>0.9951561199207971</v>
       </c>
       <c r="F15">
-        <v>0.9969922374555918</v>
+        <v>1.004778412393852</v>
       </c>
       <c r="G15">
-        <v>1.023670121237644</v>
+        <v>0.9906823609052632</v>
       </c>
       <c r="H15">
-        <v>0.9874287480611282</v>
+        <v>1.003164138515666</v>
       </c>
       <c r="I15">
-        <v>0.9978969190310238</v>
+        <v>1.001871998805652</v>
       </c>
       <c r="J15">
-        <v>1.023670121237644</v>
+        <v>0.9906823609052632</v>
       </c>
       <c r="K15">
-        <v>0.9874287480611282</v>
+        <v>1.003164138515666</v>
       </c>
       <c r="L15">
-        <v>0.9978969190310238</v>
+        <v>1.001871998805652</v>
       </c>
       <c r="M15">
-        <v>1.010783520134334</v>
+        <v>0.9962771798554577</v>
       </c>
       <c r="N15">
-        <v>1.010783520134334</v>
+        <v>0.9962771798554577</v>
       </c>
       <c r="O15">
-        <v>1.01060781474768</v>
+        <v>0.9959034932105708</v>
       </c>
       <c r="P15">
-        <v>1.002998596109932</v>
+        <v>0.998572832742194</v>
       </c>
       <c r="Q15">
-        <v>1.002998596109932</v>
+        <v>0.998572832742194</v>
       </c>
       <c r="R15">
-        <v>0.999106134097731</v>
+        <v>0.9997206591855621</v>
       </c>
       <c r="S15">
-        <v>0.999106134097731</v>
+        <v>0.9997206591855621</v>
       </c>
       <c r="T15">
-        <v>1.00184823340973</v>
+        <v>0.999650291007791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.043724890742761</v>
+        <v>1.004338887783865</v>
       </c>
       <c r="D16">
-        <v>1.059546449020202</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="E16">
-        <v>0.905598378844616</v>
+        <v>0.9906508297256662</v>
       </c>
       <c r="F16">
-        <v>1.095518259806546</v>
+        <v>1.009268998854186</v>
       </c>
       <c r="G16">
-        <v>0.8195079950082309</v>
+        <v>0.9820332105029348</v>
       </c>
       <c r="H16">
-        <v>1.059546449020202</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="I16">
-        <v>1.037213964220833</v>
+        <v>1.003629097402164</v>
       </c>
       <c r="J16">
-        <v>0.8195079950082309</v>
+        <v>0.9820332105029348</v>
       </c>
       <c r="K16">
-        <v>1.059546449020202</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="L16">
-        <v>1.037213964220833</v>
+        <v>1.003629097402164</v>
       </c>
       <c r="M16">
-        <v>0.9283609796145318</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="N16">
-        <v>0.9283609796145318</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="O16">
-        <v>0.9207734460245599</v>
+        <v>0.992104379210255</v>
       </c>
       <c r="P16">
-        <v>0.9720894694164217</v>
+        <v>0.9972419936069609</v>
       </c>
       <c r="Q16">
-        <v>0.9720894694164217</v>
+        <v>0.9972419936069609</v>
       </c>
       <c r="R16">
-        <v>0.9939537143173667</v>
+        <v>0.9994474134341667</v>
       </c>
       <c r="S16">
-        <v>0.9939537143173667</v>
+        <v>0.9994474134341667</v>
       </c>
       <c r="T16">
-        <v>0.9935183229405312</v>
+        <v>0.9993307828640999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.035433165318895</v>
+        <v>1.008308435030938</v>
       </c>
       <c r="D17">
-        <v>1.043560161497975</v>
+        <v>1.011541431501804</v>
       </c>
       <c r="E17">
-        <v>0.922927404319445</v>
+        <v>0.9820855800049989</v>
       </c>
       <c r="F17">
-        <v>1.083802543444925</v>
+        <v>1.017855980315239</v>
       </c>
       <c r="G17">
-        <v>0.8554661508713234</v>
+        <v>0.9656274615551157</v>
       </c>
       <c r="H17">
-        <v>1.043560161497975</v>
+        <v>1.011541431501804</v>
       </c>
       <c r="I17">
-        <v>1.032088724253843</v>
+        <v>1.006977985033471</v>
       </c>
       <c r="J17">
-        <v>0.8554661508713234</v>
+        <v>0.9656274615551157</v>
       </c>
       <c r="K17">
-        <v>1.043560161497975</v>
+        <v>1.011541431501804</v>
       </c>
       <c r="L17">
-        <v>1.032088724253843</v>
+        <v>1.006977985033471</v>
       </c>
       <c r="M17">
-        <v>0.9437774375625834</v>
+        <v>0.9863027232942936</v>
       </c>
       <c r="N17">
-        <v>0.9437774375625834</v>
+        <v>0.9863027232942936</v>
       </c>
       <c r="O17">
-        <v>0.9368274264815373</v>
+        <v>0.9848970088645287</v>
       </c>
       <c r="P17">
-        <v>0.9770383455410472</v>
+        <v>0.9947156260301305</v>
       </c>
       <c r="Q17">
-        <v>0.9770383455410471</v>
+        <v>0.9947156260301305</v>
       </c>
       <c r="R17">
-        <v>0.993668799530279</v>
+        <v>0.9989220773980489</v>
       </c>
       <c r="S17">
-        <v>0.993668799530279</v>
+        <v>0.9989220773980489</v>
       </c>
       <c r="T17">
-        <v>0.9955463582844009</v>
+        <v>0.9987328122402611</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.018776135543279</v>
+        <v>1.012181111450275</v>
       </c>
       <c r="D18">
-        <v>1.011646454918089</v>
+        <v>1.016872161813242</v>
       </c>
       <c r="E18">
-        <v>0.9577647742196964</v>
+        <v>0.9737266793309755</v>
       </c>
       <c r="F18">
-        <v>1.059989867027006</v>
+        <v>1.026255321616036</v>
       </c>
       <c r="G18">
-        <v>0.9276256835013506</v>
+        <v>0.9496288794925696</v>
       </c>
       <c r="H18">
-        <v>1.011646454918089</v>
+        <v>1.016872161813242</v>
       </c>
       <c r="I18">
-        <v>1.02171015991779</v>
+        <v>1.010250641767349</v>
       </c>
       <c r="J18">
-        <v>0.9276256835013506</v>
+        <v>0.9496288794925696</v>
       </c>
       <c r="K18">
-        <v>1.011646454918089</v>
+        <v>1.016872161813242</v>
       </c>
       <c r="L18">
-        <v>1.02171015991779</v>
+        <v>1.010250641767349</v>
       </c>
       <c r="M18">
-        <v>0.9746679217095703</v>
+        <v>0.9799397606299592</v>
       </c>
       <c r="N18">
-        <v>0.9746679217095703</v>
+        <v>0.9799397606299592</v>
       </c>
       <c r="O18">
-        <v>0.9690335392129455</v>
+        <v>0.9778687335302979</v>
       </c>
       <c r="P18">
-        <v>0.9869940994457433</v>
+        <v>0.9922505610243867</v>
       </c>
       <c r="Q18">
-        <v>0.9869940994457433</v>
+        <v>0.9922505610243867</v>
       </c>
       <c r="R18">
-        <v>0.9931571883138299</v>
+        <v>0.9984059612216004</v>
       </c>
       <c r="S18">
-        <v>0.9931571883138299</v>
+        <v>0.9984059612216004</v>
       </c>
       <c r="T18">
-        <v>0.999585512521202</v>
+        <v>0.9981524659117412</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.020315314734954</v>
+        <v>1.00014998254866</v>
       </c>
       <c r="D19">
-        <v>1.010276505541424</v>
+        <v>1.000071773946192</v>
       </c>
       <c r="E19">
-        <v>0.9539700736059684</v>
+        <v>0.99965989118315</v>
       </c>
       <c r="F19">
-        <v>1.068247316814066</v>
+        <v>1.000508662062752</v>
       </c>
       <c r="G19">
-        <v>0.9226356214915765</v>
+        <v>0.9994299618862946</v>
       </c>
       <c r="H19">
-        <v>1.010276505541424</v>
+        <v>1.000071773946192</v>
       </c>
       <c r="I19">
-        <v>1.024446510033976</v>
+        <v>1.000182168223284</v>
       </c>
       <c r="J19">
-        <v>0.9226356214915765</v>
+        <v>0.9994299618862946</v>
       </c>
       <c r="K19">
-        <v>1.010276505541424</v>
+        <v>1.000071773946192</v>
       </c>
       <c r="L19">
-        <v>1.024446510033976</v>
+        <v>1.000182168223284</v>
       </c>
       <c r="M19">
-        <v>0.9735410657627764</v>
+        <v>0.9998060650547891</v>
       </c>
       <c r="N19">
-        <v>0.9735410657627764</v>
+        <v>0.9998060650547891</v>
       </c>
       <c r="O19">
-        <v>0.9670174017105072</v>
+        <v>0.9997573404309094</v>
       </c>
       <c r="P19">
-        <v>0.985786212355659</v>
+        <v>0.9998946346852567</v>
       </c>
       <c r="Q19">
-        <v>0.985786212355659</v>
+        <v>0.999894634685257</v>
       </c>
       <c r="R19">
-        <v>0.9919087856521004</v>
+        <v>0.9999389195004907</v>
       </c>
       <c r="S19">
-        <v>0.9919087856521004</v>
+        <v>0.9999389195004907</v>
       </c>
       <c r="T19">
-        <v>0.9999818903703277</v>
+        <v>1.000000406641722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000014455737446</v>
+        <v>1.00038263712978</v>
       </c>
       <c r="D20">
-        <v>1.000114428560579</v>
+        <v>1.00018634915213</v>
       </c>
       <c r="E20">
-        <v>0.9999757755742921</v>
+        <v>0.9991330673832198</v>
       </c>
       <c r="F20">
-        <v>0.9999185083771348</v>
+        <v>1.001292031133793</v>
       </c>
       <c r="G20">
-        <v>0.999913423338075</v>
+        <v>0.9985438923155754</v>
       </c>
       <c r="H20">
-        <v>1.000114428560579</v>
+        <v>1.00018634915213</v>
       </c>
       <c r="I20">
-        <v>0.9999733154094085</v>
+        <v>1.00046341514172</v>
       </c>
       <c r="J20">
-        <v>0.999913423338075</v>
+        <v>0.9985438923155754</v>
       </c>
       <c r="K20">
-        <v>1.000114428560579</v>
+        <v>1.00018634915213</v>
       </c>
       <c r="L20">
-        <v>0.9999733154094085</v>
+        <v>1.00046341514172</v>
       </c>
       <c r="M20">
-        <v>0.9999433693737417</v>
+        <v>0.9995036537286478</v>
       </c>
       <c r="N20">
-        <v>0.9999433693737417</v>
+        <v>0.9995036537286478</v>
       </c>
       <c r="O20">
-        <v>0.9999541714405918</v>
+        <v>0.9993801249468385</v>
       </c>
       <c r="P20">
-        <v>1.000000389102687</v>
+        <v>0.9997312188698085</v>
       </c>
       <c r="Q20">
-        <v>1.000000389102687</v>
+        <v>0.9997312188698085</v>
       </c>
       <c r="R20">
-        <v>1.00002889896716</v>
+        <v>0.9998450014403888</v>
       </c>
       <c r="S20">
-        <v>1.00002889896716</v>
+        <v>0.9998450014403888</v>
       </c>
       <c r="T20">
-        <v>0.999984984499489</v>
+        <v>1.000000232042703</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000171970726907</v>
+        <v>1.000536623211195</v>
       </c>
       <c r="D21">
-        <v>0.9998824896140655</v>
+        <v>1.0002712416593</v>
       </c>
       <c r="E21">
-        <v>0.9995906454467812</v>
+        <v>0.9987859045989792</v>
       </c>
       <c r="F21">
-        <v>1.000838018215422</v>
+        <v>1.001796701853688</v>
       </c>
       <c r="G21">
-        <v>0.9994112931352556</v>
+        <v>0.9979533613212735</v>
       </c>
       <c r="H21">
-        <v>0.9998824896140655</v>
+        <v>1.0002712416593</v>
       </c>
       <c r="I21">
-        <v>1.000291100118202</v>
+        <v>1.000645833984457</v>
       </c>
       <c r="J21">
-        <v>0.9994112931352556</v>
+        <v>0.9979533613212735</v>
       </c>
       <c r="K21">
-        <v>0.9998824896140655</v>
+        <v>1.0002712416593</v>
       </c>
       <c r="L21">
-        <v>1.000291100118202</v>
+        <v>1.000645833984457</v>
       </c>
       <c r="M21">
-        <v>0.9998511966267287</v>
+        <v>0.9992995976528654</v>
       </c>
       <c r="N21">
-        <v>0.9998511966267287</v>
+        <v>0.9992995976528654</v>
       </c>
       <c r="O21">
-        <v>0.9997643462334129</v>
+        <v>0.9991283666349032</v>
       </c>
       <c r="P21">
-        <v>0.9998616276225075</v>
+        <v>0.9996234789883435</v>
       </c>
       <c r="Q21">
-        <v>0.9998616276225075</v>
+        <v>0.9996234789883435</v>
       </c>
       <c r="R21">
-        <v>0.999866843120397</v>
+        <v>0.9997854196560827</v>
       </c>
       <c r="S21">
-        <v>0.999866843120397</v>
+        <v>0.9997854196560827</v>
       </c>
       <c r="T21">
-        <v>1.000030919542772</v>
+        <v>0.999998277771482</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000719922892986</v>
+        <v>1.001156894298918</v>
       </c>
       <c r="D22">
-        <v>1.001444563755097</v>
+        <v>1.000583635060373</v>
       </c>
       <c r="E22">
-        <v>0.9984907135441724</v>
+        <v>0.997382106377165</v>
       </c>
       <c r="F22">
-        <v>1.000980868695259</v>
+        <v>1.003876114896152</v>
       </c>
       <c r="G22">
-        <v>0.9968774809113022</v>
+        <v>0.9955886621653677</v>
       </c>
       <c r="H22">
-        <v>1.001444563755097</v>
+        <v>1.000583635060373</v>
       </c>
       <c r="I22">
-        <v>1.000421718592845</v>
+        <v>1.001392803656429</v>
       </c>
       <c r="J22">
-        <v>0.9968774809113022</v>
+        <v>0.9955886621653677</v>
       </c>
       <c r="K22">
-        <v>1.001444563755097</v>
+        <v>1.000583635060373</v>
       </c>
       <c r="L22">
-        <v>1.000421718592845</v>
+        <v>1.001392803656429</v>
       </c>
       <c r="M22">
-        <v>0.9986495997520739</v>
+        <v>0.9984907329108985</v>
       </c>
       <c r="N22">
-        <v>0.9986495997520739</v>
+        <v>0.9984907329108985</v>
       </c>
       <c r="O22">
-        <v>0.9985966376827734</v>
+        <v>0.9981211907329873</v>
       </c>
       <c r="P22">
-        <v>0.9995812544197484</v>
+        <v>0.9991883669607233</v>
       </c>
       <c r="Q22">
-        <v>0.9995812544197484</v>
+        <v>0.9991883669607233</v>
       </c>
       <c r="R22">
-        <v>1.000047081753586</v>
+        <v>0.9995371839856357</v>
       </c>
       <c r="S22">
-        <v>1.000047081753586</v>
+        <v>0.9995371839856357</v>
       </c>
       <c r="T22">
-        <v>0.9998225447319439</v>
+        <v>0.9999967027424007</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.00192111481096</v>
+      </c>
+      <c r="D23">
+        <v>1.000990063320019</v>
+      </c>
+      <c r="E23">
+        <v>0.9956570745682651</v>
+      </c>
+      <c r="F23">
+        <v>1.006401996316657</v>
+      </c>
+      <c r="G23">
+        <v>0.9926638599977547</v>
+      </c>
+      <c r="H23">
+        <v>1.000990063320019</v>
+      </c>
+      <c r="I23">
+        <v>1.002304263090332</v>
+      </c>
+      <c r="J23">
+        <v>0.9926638599977547</v>
+      </c>
+      <c r="K23">
+        <v>1.000990063320019</v>
+      </c>
+      <c r="L23">
+        <v>1.002304263090332</v>
+      </c>
+      <c r="M23">
+        <v>0.9974840615440437</v>
+      </c>
+      <c r="N23">
+        <v>0.9974840615440437</v>
+      </c>
+      <c r="O23">
+        <v>0.9968750658854507</v>
+      </c>
+      <c r="P23">
+        <v>0.9986527288027022</v>
+      </c>
+      <c r="Q23">
+        <v>0.9986527288027022</v>
+      </c>
+      <c r="R23">
+        <v>0.9992370624320315</v>
+      </c>
+      <c r="S23">
+        <v>0.9992370624320315</v>
+      </c>
+      <c r="T23">
+        <v>0.9999897286839982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9836145422628851</v>
+      </c>
+      <c r="D24">
+        <v>1.000686080058187</v>
+      </c>
+      <c r="E24">
+        <v>1.038172774574788</v>
+      </c>
+      <c r="F24">
+        <v>0.9328914451111769</v>
+      </c>
+      <c r="G24">
+        <v>1.059174048155853</v>
+      </c>
+      <c r="H24">
+        <v>1.000686080058187</v>
+      </c>
+      <c r="I24">
+        <v>0.9765892316818462</v>
+      </c>
+      <c r="J24">
+        <v>1.059174048155853</v>
+      </c>
+      <c r="K24">
+        <v>1.000686080058187</v>
+      </c>
+      <c r="L24">
+        <v>0.9765892316818462</v>
+      </c>
+      <c r="M24">
+        <v>1.01788163991885</v>
+      </c>
+      <c r="N24">
+        <v>1.01788163991885</v>
+      </c>
+      <c r="O24">
+        <v>1.024645351470829</v>
+      </c>
+      <c r="P24">
+        <v>1.012149786631962</v>
+      </c>
+      <c r="Q24">
+        <v>1.012149786631962</v>
+      </c>
+      <c r="R24">
+        <v>1.009283859988518</v>
+      </c>
+      <c r="S24">
+        <v>1.009283859988518</v>
+      </c>
+      <c r="T24">
+        <v>0.9985213536407894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9949101431603906</v>
+      </c>
+      <c r="D25">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="E25">
+        <v>1.010273019781603</v>
+      </c>
+      <c r="F25">
+        <v>0.9964549133227598</v>
+      </c>
+      <c r="G25">
+        <v>1.023103828471014</v>
+      </c>
+      <c r="H25">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="I25">
+        <v>0.997896346735736</v>
+      </c>
+      <c r="J25">
+        <v>1.023103828471014</v>
+      </c>
+      <c r="K25">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="L25">
+        <v>0.997896346735736</v>
+      </c>
+      <c r="M25">
+        <v>1.010500087603375</v>
+      </c>
+      <c r="N25">
+        <v>1.010500087603375</v>
+      </c>
+      <c r="O25">
+        <v>1.010424398329451</v>
+      </c>
+      <c r="P25">
+        <v>1.002884621466016</v>
+      </c>
+      <c r="Q25">
+        <v>1.002884621466016</v>
+      </c>
+      <c r="R25">
+        <v>0.9990768883973365</v>
+      </c>
+      <c r="S25">
+        <v>0.9990768883973365</v>
+      </c>
+      <c r="T25">
+        <v>1.0017153234438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9837122756878457</v>
+      </c>
+      <c r="D26">
+        <v>1.001512414148788</v>
+      </c>
+      <c r="E26">
+        <v>1.03816226555251</v>
+      </c>
+      <c r="F26">
+        <v>0.9317531221109095</v>
+      </c>
+      <c r="G26">
+        <v>1.058311512421291</v>
+      </c>
+      <c r="H26">
+        <v>1.001512414148788</v>
+      </c>
+      <c r="I26">
+        <v>0.9763871249054838</v>
+      </c>
+      <c r="J26">
+        <v>1.058311512421291</v>
+      </c>
+      <c r="K26">
+        <v>1.001512414148788</v>
+      </c>
+      <c r="L26">
+        <v>0.9763871249054838</v>
+      </c>
+      <c r="M26">
+        <v>1.017349318663387</v>
+      </c>
+      <c r="N26">
+        <v>1.017349318663387</v>
+      </c>
+      <c r="O26">
+        <v>1.024286967626428</v>
+      </c>
+      <c r="P26">
+        <v>1.012070350491854</v>
+      </c>
+      <c r="Q26">
+        <v>1.012070350491854</v>
+      </c>
+      <c r="R26">
+        <v>1.009430866406088</v>
+      </c>
+      <c r="S26">
+        <v>1.009430866406088</v>
+      </c>
+      <c r="T26">
+        <v>0.9983064524711378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9948449706986171</v>
+      </c>
+      <c r="D27">
+        <v>0.9874287480611282</v>
+      </c>
+      <c r="E27">
+        <v>1.010256403974374</v>
+      </c>
+      <c r="F27">
+        <v>0.9969922374555918</v>
+      </c>
+      <c r="G27">
+        <v>1.023670121237644</v>
+      </c>
+      <c r="H27">
+        <v>0.9874287480611282</v>
+      </c>
+      <c r="I27">
+        <v>0.9978969190310238</v>
+      </c>
+      <c r="J27">
+        <v>1.023670121237644</v>
+      </c>
+      <c r="K27">
+        <v>0.9874287480611282</v>
+      </c>
+      <c r="L27">
+        <v>0.9978969190310238</v>
+      </c>
+      <c r="M27">
+        <v>1.010783520134334</v>
+      </c>
+      <c r="N27">
+        <v>1.010783520134334</v>
+      </c>
+      <c r="O27">
+        <v>1.01060781474768</v>
+      </c>
+      <c r="P27">
+        <v>1.002998596109932</v>
+      </c>
+      <c r="Q27">
+        <v>1.002998596109932</v>
+      </c>
+      <c r="R27">
+        <v>0.999106134097731</v>
+      </c>
+      <c r="S27">
+        <v>0.999106134097731</v>
+      </c>
+      <c r="T27">
+        <v>1.00184823340973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.043724890742761</v>
+      </c>
+      <c r="D28">
+        <v>1.059546449020202</v>
+      </c>
+      <c r="E28">
+        <v>0.905598378844616</v>
+      </c>
+      <c r="F28">
+        <v>1.095518259806546</v>
+      </c>
+      <c r="G28">
+        <v>0.8195079950082309</v>
+      </c>
+      <c r="H28">
+        <v>1.059546449020202</v>
+      </c>
+      <c r="I28">
+        <v>1.037213964220833</v>
+      </c>
+      <c r="J28">
+        <v>0.8195079950082309</v>
+      </c>
+      <c r="K28">
+        <v>1.059546449020202</v>
+      </c>
+      <c r="L28">
+        <v>1.037213964220833</v>
+      </c>
+      <c r="M28">
+        <v>0.9283609796145318</v>
+      </c>
+      <c r="N28">
+        <v>0.9283609796145318</v>
+      </c>
+      <c r="O28">
+        <v>0.9207734460245599</v>
+      </c>
+      <c r="P28">
+        <v>0.9720894694164217</v>
+      </c>
+      <c r="Q28">
+        <v>0.9720894694164217</v>
+      </c>
+      <c r="R28">
+        <v>0.9939537143173667</v>
+      </c>
+      <c r="S28">
+        <v>0.9939537143173667</v>
+      </c>
+      <c r="T28">
+        <v>0.9935183229405312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.035433165318895</v>
+      </c>
+      <c r="D29">
+        <v>1.043560161497975</v>
+      </c>
+      <c r="E29">
+        <v>0.922927404319445</v>
+      </c>
+      <c r="F29">
+        <v>1.083802543444925</v>
+      </c>
+      <c r="G29">
+        <v>0.8554661508713234</v>
+      </c>
+      <c r="H29">
+        <v>1.043560161497975</v>
+      </c>
+      <c r="I29">
+        <v>1.032088724253843</v>
+      </c>
+      <c r="J29">
+        <v>0.8554661508713234</v>
+      </c>
+      <c r="K29">
+        <v>1.043560161497975</v>
+      </c>
+      <c r="L29">
+        <v>1.032088724253843</v>
+      </c>
+      <c r="M29">
+        <v>0.9437774375625834</v>
+      </c>
+      <c r="N29">
+        <v>0.9437774375625834</v>
+      </c>
+      <c r="O29">
+        <v>0.9368274264815373</v>
+      </c>
+      <c r="P29">
+        <v>0.9770383455410472</v>
+      </c>
+      <c r="Q29">
+        <v>0.9770383455410471</v>
+      </c>
+      <c r="R29">
+        <v>0.993668799530279</v>
+      </c>
+      <c r="S29">
+        <v>0.993668799530279</v>
+      </c>
+      <c r="T29">
+        <v>0.9955463582844009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.018776135543279</v>
+      </c>
+      <c r="D30">
+        <v>1.011646454918089</v>
+      </c>
+      <c r="E30">
+        <v>0.9577647742196964</v>
+      </c>
+      <c r="F30">
+        <v>1.059989867027006</v>
+      </c>
+      <c r="G30">
+        <v>0.9276256835013506</v>
+      </c>
+      <c r="H30">
+        <v>1.011646454918089</v>
+      </c>
+      <c r="I30">
+        <v>1.02171015991779</v>
+      </c>
+      <c r="J30">
+        <v>0.9276256835013506</v>
+      </c>
+      <c r="K30">
+        <v>1.011646454918089</v>
+      </c>
+      <c r="L30">
+        <v>1.02171015991779</v>
+      </c>
+      <c r="M30">
+        <v>0.9746679217095703</v>
+      </c>
+      <c r="N30">
+        <v>0.9746679217095703</v>
+      </c>
+      <c r="O30">
+        <v>0.9690335392129455</v>
+      </c>
+      <c r="P30">
+        <v>0.9869940994457433</v>
+      </c>
+      <c r="Q30">
+        <v>0.9869940994457433</v>
+      </c>
+      <c r="R30">
+        <v>0.9931571883138299</v>
+      </c>
+      <c r="S30">
+        <v>0.9931571883138299</v>
+      </c>
+      <c r="T30">
+        <v>0.999585512521202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.020315314734954</v>
+      </c>
+      <c r="D31">
+        <v>1.010276505541424</v>
+      </c>
+      <c r="E31">
+        <v>0.9539700736059684</v>
+      </c>
+      <c r="F31">
+        <v>1.068247316814066</v>
+      </c>
+      <c r="G31">
+        <v>0.9226356214915765</v>
+      </c>
+      <c r="H31">
+        <v>1.010276505541424</v>
+      </c>
+      <c r="I31">
+        <v>1.024446510033976</v>
+      </c>
+      <c r="J31">
+        <v>0.9226356214915765</v>
+      </c>
+      <c r="K31">
+        <v>1.010276505541424</v>
+      </c>
+      <c r="L31">
+        <v>1.024446510033976</v>
+      </c>
+      <c r="M31">
+        <v>0.9735410657627764</v>
+      </c>
+      <c r="N31">
+        <v>0.9735410657627764</v>
+      </c>
+      <c r="O31">
+        <v>0.9670174017105072</v>
+      </c>
+      <c r="P31">
+        <v>0.985786212355659</v>
+      </c>
+      <c r="Q31">
+        <v>0.985786212355659</v>
+      </c>
+      <c r="R31">
+        <v>0.9919087856521004</v>
+      </c>
+      <c r="S31">
+        <v>0.9919087856521004</v>
+      </c>
+      <c r="T31">
+        <v>0.9999818903703277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.052039684931507</v>
+      </c>
+      <c r="D32">
+        <v>1.074874032876712</v>
+      </c>
+      <c r="E32">
+        <v>0.8881497486301367</v>
+      </c>
+      <c r="F32">
+        <v>1.10817437260274</v>
+      </c>
+      <c r="G32">
+        <v>0.7836837772602737</v>
+      </c>
+      <c r="H32">
+        <v>1.074874032876712</v>
+      </c>
+      <c r="I32">
+        <v>1.042642836986302</v>
+      </c>
+      <c r="J32">
+        <v>0.7836837772602737</v>
+      </c>
+      <c r="K32">
+        <v>1.074874032876712</v>
+      </c>
+      <c r="L32">
+        <v>1.042642836986302</v>
+      </c>
+      <c r="M32">
+        <v>0.9131633071232879</v>
+      </c>
+      <c r="N32">
+        <v>0.9131633071232879</v>
+      </c>
+      <c r="O32">
+        <v>0.9048254542922375</v>
+      </c>
+      <c r="P32">
+        <v>0.9670668823744292</v>
+      </c>
+      <c r="Q32">
+        <v>0.9670668823744292</v>
+      </c>
+      <c r="R32">
+        <v>0.99401867</v>
+      </c>
+      <c r="S32">
+        <v>0.99401867</v>
+      </c>
+      <c r="T32">
+        <v>0.9915940755479452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.023290529473684</v>
+      </c>
+      <c r="D33">
+        <v>1.029183077368421</v>
+      </c>
+      <c r="E33">
+        <v>0.9496715052631578</v>
+      </c>
+      <c r="F33">
+        <v>1.053403889473684</v>
+      </c>
+      <c r="G33">
+        <v>0.9043287073684211</v>
+      </c>
+      <c r="H33">
+        <v>1.029183077368421</v>
+      </c>
+      <c r="I33">
+        <v>1.020865610526316</v>
+      </c>
+      <c r="J33">
+        <v>0.9043287073684211</v>
+      </c>
+      <c r="K33">
+        <v>1.029183077368421</v>
+      </c>
+      <c r="L33">
+        <v>1.020865610526316</v>
+      </c>
+      <c r="M33">
+        <v>0.9625971589473685</v>
+      </c>
+      <c r="N33">
+        <v>0.9625971589473685</v>
+      </c>
+      <c r="O33">
+        <v>0.9582886077192984</v>
+      </c>
+      <c r="P33">
+        <v>0.9847924650877194</v>
+      </c>
+      <c r="Q33">
+        <v>0.9847924650877192</v>
+      </c>
+      <c r="R33">
+        <v>0.9958901181578947</v>
+      </c>
+      <c r="S33">
+        <v>0.9958901181578947</v>
+      </c>
+      <c r="T33">
+        <v>0.9967905532456139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.021067626842105</v>
+      </c>
+      <c r="D34">
+        <v>0.9989847710526315</v>
+      </c>
+      <c r="E34">
+        <v>0.9506079000000001</v>
+      </c>
+      <c r="F34">
+        <v>1.087502641578947</v>
+      </c>
+      <c r="G34">
+        <v>0.9244841031578949</v>
+      </c>
+      <c r="H34">
+        <v>0.9989847710526315</v>
+      </c>
+      <c r="I34">
+        <v>1.030155214736842</v>
+      </c>
+      <c r="J34">
+        <v>0.9244841031578949</v>
+      </c>
+      <c r="K34">
+        <v>0.9989847710526315</v>
+      </c>
+      <c r="L34">
+        <v>1.030155214736842</v>
+      </c>
+      <c r="M34">
+        <v>0.9773196589473685</v>
+      </c>
+      <c r="N34">
+        <v>0.9773196589473685</v>
+      </c>
+      <c r="O34">
+        <v>0.9684157392982456</v>
+      </c>
+      <c r="P34">
+        <v>0.9845413629824562</v>
+      </c>
+      <c r="Q34">
+        <v>0.9845413629824562</v>
+      </c>
+      <c r="R34">
+        <v>0.9881522150000001</v>
+      </c>
+      <c r="S34">
+        <v>0.9881522150000001</v>
+      </c>
+      <c r="T34">
+        <v>1.002133709561404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.073682942000157</v>
+      </c>
+      <c r="D35">
+        <v>1.033535038052407</v>
+      </c>
+      <c r="E35">
+        <v>0.8325957031574986</v>
+      </c>
+      <c r="F35">
+        <v>1.252622251039726</v>
+      </c>
+      <c r="G35">
+        <v>0.7207789949582125</v>
+      </c>
+      <c r="H35">
+        <v>1.033535038052407</v>
+      </c>
+      <c r="I35">
+        <v>1.090204676174185</v>
+      </c>
+      <c r="J35">
+        <v>0.7207789949582125</v>
+      </c>
+      <c r="K35">
+        <v>1.033535038052407</v>
+      </c>
+      <c r="L35">
+        <v>1.090204676174185</v>
+      </c>
+      <c r="M35">
+        <v>0.9054918355661989</v>
+      </c>
+      <c r="N35">
+        <v>0.9054918355661989</v>
+      </c>
+      <c r="O35">
+        <v>0.8811931247632989</v>
+      </c>
+      <c r="P35">
+        <v>0.9481729030616016</v>
+      </c>
+      <c r="Q35">
+        <v>0.9481729030616016</v>
+      </c>
+      <c r="R35">
+        <v>0.969513436809303</v>
+      </c>
+      <c r="S35">
+        <v>0.969513436809303</v>
+      </c>
+      <c r="T35">
+        <v>1.000569934230365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000014455737446</v>
+      </c>
+      <c r="D36">
+        <v>1.000114428560579</v>
+      </c>
+      <c r="E36">
+        <v>0.9999757755742921</v>
+      </c>
+      <c r="F36">
+        <v>0.9999185083771348</v>
+      </c>
+      <c r="G36">
+        <v>0.999913423338075</v>
+      </c>
+      <c r="H36">
+        <v>1.000114428560579</v>
+      </c>
+      <c r="I36">
+        <v>0.9999733154094085</v>
+      </c>
+      <c r="J36">
+        <v>0.999913423338075</v>
+      </c>
+      <c r="K36">
+        <v>1.000114428560579</v>
+      </c>
+      <c r="L36">
+        <v>0.9999733154094085</v>
+      </c>
+      <c r="M36">
+        <v>0.9999433693737417</v>
+      </c>
+      <c r="N36">
+        <v>0.9999433693737417</v>
+      </c>
+      <c r="O36">
+        <v>0.9999541714405918</v>
+      </c>
+      <c r="P36">
+        <v>1.000000389102687</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000389102687</v>
+      </c>
+      <c r="R36">
+        <v>1.00002889896716</v>
+      </c>
+      <c r="S36">
+        <v>1.00002889896716</v>
+      </c>
+      <c r="T36">
+        <v>0.999984984499489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000171970726907</v>
+      </c>
+      <c r="D37">
+        <v>0.9998824896140655</v>
+      </c>
+      <c r="E37">
+        <v>0.9995906454467812</v>
+      </c>
+      <c r="F37">
+        <v>1.000838018215422</v>
+      </c>
+      <c r="G37">
+        <v>0.9994112931352556</v>
+      </c>
+      <c r="H37">
+        <v>0.9998824896140655</v>
+      </c>
+      <c r="I37">
+        <v>1.000291100118202</v>
+      </c>
+      <c r="J37">
+        <v>0.9994112931352556</v>
+      </c>
+      <c r="K37">
+        <v>0.9998824896140655</v>
+      </c>
+      <c r="L37">
+        <v>1.000291100118202</v>
+      </c>
+      <c r="M37">
+        <v>0.9998511966267287</v>
+      </c>
+      <c r="N37">
+        <v>0.9998511966267287</v>
+      </c>
+      <c r="O37">
+        <v>0.9997643462334129</v>
+      </c>
+      <c r="P37">
+        <v>0.9998616276225075</v>
+      </c>
+      <c r="Q37">
+        <v>0.9998616276225075</v>
+      </c>
+      <c r="R37">
+        <v>0.999866843120397</v>
+      </c>
+      <c r="S37">
+        <v>0.999866843120397</v>
+      </c>
+      <c r="T37">
+        <v>1.000030919542772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000719922892986</v>
+      </c>
+      <c r="D38">
+        <v>1.001444563755097</v>
+      </c>
+      <c r="E38">
+        <v>0.9984907135441724</v>
+      </c>
+      <c r="F38">
+        <v>1.000980868695259</v>
+      </c>
+      <c r="G38">
+        <v>0.9968774809113022</v>
+      </c>
+      <c r="H38">
+        <v>1.001444563755097</v>
+      </c>
+      <c r="I38">
+        <v>1.000421718592845</v>
+      </c>
+      <c r="J38">
+        <v>0.9968774809113022</v>
+      </c>
+      <c r="K38">
+        <v>1.001444563755097</v>
+      </c>
+      <c r="L38">
+        <v>1.000421718592845</v>
+      </c>
+      <c r="M38">
+        <v>0.9986495997520739</v>
+      </c>
+      <c r="N38">
+        <v>0.9986495997520739</v>
+      </c>
+      <c r="O38">
+        <v>0.9985966376827734</v>
+      </c>
+      <c r="P38">
+        <v>0.9995812544197484</v>
+      </c>
+      <c r="Q38">
+        <v>0.9995812544197484</v>
+      </c>
+      <c r="R38">
+        <v>1.000047081753586</v>
+      </c>
+      <c r="S38">
+        <v>1.000047081753586</v>
+      </c>
+      <c r="T38">
+        <v>0.9998225447319439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.001760807693649</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.004626842067034</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9964175833875798</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000994111155397</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9920024368242675</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.004626842067034</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000581371685945</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9920024368242675</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.004626842067034</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000581371685945</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9962919042551062</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9962919042551062</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.996333797299264</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9990702168590823</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9990702168590823</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.00045937316107</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.00045937316107</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9993971921356454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.007603751835781</v>
+      </c>
+      <c r="D40">
+        <v>1.013781841465721</v>
+      </c>
+      <c r="E40">
+        <v>0.9839556262023638</v>
+      </c>
+      <c r="F40">
+        <v>1.012101945442998</v>
+      </c>
+      <c r="G40">
+        <v>0.967429858257015</v>
+      </c>
+      <c r="H40">
+        <v>1.013781841465721</v>
+      </c>
+      <c r="I40">
+        <v>1.005061329194135</v>
+      </c>
+      <c r="J40">
+        <v>0.967429858257015</v>
+      </c>
+      <c r="K40">
+        <v>1.013781841465721</v>
+      </c>
+      <c r="L40">
+        <v>1.005061329194135</v>
+      </c>
+      <c r="M40">
+        <v>0.9862455937255747</v>
+      </c>
+      <c r="N40">
+        <v>0.9862455937255747</v>
+      </c>
+      <c r="O40">
+        <v>0.9854822712178377</v>
+      </c>
+      <c r="P40">
+        <v>0.9954243429722903</v>
+      </c>
+      <c r="Q40">
+        <v>0.9954243429722903</v>
+      </c>
+      <c r="R40">
+        <v>1.000013717595648</v>
+      </c>
+      <c r="S40">
+        <v>1.000013717595648</v>
+      </c>
+      <c r="T40">
+        <v>0.9983223920663357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9956624971443543</v>
+      </c>
+      <c r="D41">
+        <v>0.9941879791371016</v>
+      </c>
+      <c r="E41">
+        <v>1.00932482638838</v>
+      </c>
+      <c r="F41">
+        <v>0.9905755879836464</v>
+      </c>
+      <c r="G41">
+        <v>1.017959982127827</v>
+      </c>
+      <c r="H41">
+        <v>0.9941879791371016</v>
+      </c>
+      <c r="I41">
+        <v>0.9962692931940524</v>
+      </c>
+      <c r="J41">
+        <v>1.017959982127827</v>
+      </c>
+      <c r="K41">
+        <v>0.9941879791371016</v>
+      </c>
+      <c r="L41">
+        <v>0.9962692931940524</v>
+      </c>
+      <c r="M41">
+        <v>1.00711463766094</v>
+      </c>
+      <c r="N41">
+        <v>1.00711463766094</v>
+      </c>
+      <c r="O41">
+        <v>1.007851367236753</v>
+      </c>
+      <c r="P41">
+        <v>1.002805751486327</v>
+      </c>
+      <c r="Q41">
+        <v>1.002805751486327</v>
+      </c>
+      <c r="R41">
+        <v>1.000651308399021</v>
+      </c>
+      <c r="S41">
+        <v>1.000651308399021</v>
+      </c>
+      <c r="T41">
+        <v>1.000663360995894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.028416572771167</v>
+      </c>
+      <c r="D42">
+        <v>1.035098061986893</v>
+      </c>
+      <c r="E42">
+        <v>0.9382703566803082</v>
+      </c>
+      <c r="F42">
+        <v>1.066770947638273</v>
+      </c>
+      <c r="G42">
+        <v>0.8839201020034319</v>
+      </c>
+      <c r="H42">
+        <v>1.035098061986893</v>
+      </c>
+      <c r="I42">
+        <v>1.025666985993102</v>
+      </c>
+      <c r="J42">
+        <v>0.8839201020034319</v>
+      </c>
+      <c r="K42">
+        <v>1.035098061986893</v>
+      </c>
+      <c r="L42">
+        <v>1.025666985993102</v>
+      </c>
+      <c r="M42">
+        <v>0.9547935439982667</v>
+      </c>
+      <c r="N42">
+        <v>0.9547935439982667</v>
+      </c>
+      <c r="O42">
+        <v>0.9492858148922805</v>
+      </c>
+      <c r="P42">
+        <v>0.9815617166611422</v>
+      </c>
+      <c r="Q42">
+        <v>0.9815617166611422</v>
+      </c>
+      <c r="R42">
+        <v>0.9949458029925801</v>
+      </c>
+      <c r="S42">
+        <v>0.9949458029925801</v>
+      </c>
+      <c r="T42">
+        <v>0.9963571711788624</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003164138515666</v>
+        <v>1.00038263712978</v>
       </c>
       <c r="D3">
-        <v>0.9906823609052631</v>
+        <v>1.00018634915213</v>
       </c>
       <c r="E3">
-        <v>1.001871998805652</v>
+        <v>0.9991330673832198</v>
       </c>
       <c r="F3">
-        <v>1.003164138515666</v>
+        <v>1.001292031133793</v>
       </c>
       <c r="G3">
-        <v>1.004778412393852</v>
+        <v>0.9985438923155754</v>
       </c>
       <c r="H3">
-        <v>0.9951561199207971</v>
+        <v>1.00018634915213</v>
       </c>
       <c r="I3">
-        <v>1.002248715505515</v>
+        <v>1.00046341514172</v>
       </c>
       <c r="J3">
-        <v>0.9906823609052631</v>
+        <v>0.9985438923155754</v>
       </c>
       <c r="K3">
-        <v>1.003164138515666</v>
+        <v>1.00018634915213</v>
       </c>
       <c r="L3">
-        <v>1.001871998805652</v>
+        <v>1.00046341514172</v>
       </c>
       <c r="M3">
-        <v>0.9962771798554576</v>
+        <v>0.9995036537286478</v>
       </c>
       <c r="N3">
-        <v>0.9962771798554576</v>
+        <v>0.9995036537286478</v>
       </c>
       <c r="O3">
-        <v>0.9959034932105708</v>
+        <v>0.9993801249468385</v>
       </c>
       <c r="P3">
-        <v>0.9985728327421938</v>
+        <v>0.9997312188698085</v>
       </c>
       <c r="Q3">
-        <v>0.9985728327421938</v>
+        <v>0.9997312188698085</v>
       </c>
       <c r="R3">
-        <v>0.9997206591855619</v>
+        <v>0.9998450014403888</v>
       </c>
       <c r="S3">
-        <v>0.9997206591855619</v>
+        <v>0.9998450014403888</v>
       </c>
       <c r="T3">
-        <v>0.9996502910077908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000000232042703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006063672915784</v>
+        <v>1.007603751835781</v>
       </c>
       <c r="D4">
-        <v>0.9820332105029347</v>
+        <v>1.013781841465721</v>
       </c>
       <c r="E4">
-        <v>1.003629097402164</v>
+        <v>0.9839556262023638</v>
       </c>
       <c r="F4">
-        <v>1.006063672915784</v>
+        <v>1.012101945442998</v>
       </c>
       <c r="G4">
-        <v>1.009268998854186</v>
+        <v>0.967429858257015</v>
       </c>
       <c r="H4">
-        <v>0.9906508297256662</v>
+        <v>1.013781841465721</v>
       </c>
       <c r="I4">
-        <v>1.004338887783865</v>
+        <v>1.005061329194135</v>
       </c>
       <c r="J4">
-        <v>0.9820332105029347</v>
+        <v>0.967429858257015</v>
       </c>
       <c r="K4">
-        <v>1.006063672915784</v>
+        <v>1.013781841465721</v>
       </c>
       <c r="L4">
-        <v>1.003629097402164</v>
+        <v>1.005061329194135</v>
       </c>
       <c r="M4">
-        <v>0.9928311539525492</v>
+        <v>0.9862455937255747</v>
       </c>
       <c r="N4">
-        <v>0.9928311539525492</v>
+        <v>0.9862455937255747</v>
       </c>
       <c r="O4">
-        <v>0.992104379210255</v>
+        <v>0.9854822712178377</v>
       </c>
       <c r="P4">
-        <v>0.9972419936069606</v>
+        <v>0.9954243429722903</v>
       </c>
       <c r="Q4">
-        <v>0.9972419936069609</v>
+        <v>0.9954243429722903</v>
       </c>
       <c r="R4">
-        <v>0.9994474134341667</v>
+        <v>1.000013717595648</v>
       </c>
       <c r="S4">
-        <v>0.9994474134341667</v>
+        <v>1.000013717595648</v>
       </c>
       <c r="T4">
-        <v>0.9993307828640999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9983223920663357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011541431501804</v>
+        <v>1.022240504243515</v>
       </c>
       <c r="D5">
-        <v>0.9656274615551157</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="E5">
-        <v>1.006977985033471</v>
+        <v>0.949971298623917</v>
       </c>
       <c r="F5">
-        <v>1.011541431501804</v>
+        <v>1.070956680972623</v>
       </c>
       <c r="G5">
-        <v>1.017855980315239</v>
+        <v>0.9142559417867451</v>
       </c>
       <c r="H5">
-        <v>0.9820855800049989</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="I5">
-        <v>1.008308435030938</v>
+        <v>1.025669951383289</v>
       </c>
       <c r="J5">
-        <v>0.9656274615551157</v>
+        <v>0.9142559417867451</v>
       </c>
       <c r="K5">
-        <v>1.011541431501804</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="L5">
-        <v>1.006977985033471</v>
+        <v>1.025669951383289</v>
       </c>
       <c r="M5">
-        <v>0.9863027232942936</v>
+        <v>0.9699629465850168</v>
       </c>
       <c r="N5">
-        <v>0.9863027232942936</v>
+        <v>0.9699629465850168</v>
       </c>
       <c r="O5">
-        <v>0.9848970088645287</v>
+        <v>0.9632990639313169</v>
       </c>
       <c r="P5">
-        <v>0.9947156260301305</v>
+        <v>0.9846109453914527</v>
       </c>
       <c r="Q5">
-        <v>0.9947156260301305</v>
+        <v>0.9846109453914527</v>
       </c>
       <c r="R5">
-        <v>0.9989220773980489</v>
+        <v>0.9919349447946706</v>
       </c>
       <c r="S5">
-        <v>0.9989220773980489</v>
+        <v>0.9919349447946706</v>
       </c>
       <c r="T5">
-        <v>0.9987328122402611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9995002200024022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016872161813242</v>
+        <v>1.073682942000157</v>
       </c>
       <c r="D6">
-        <v>0.9496288794925696</v>
+        <v>1.033535038052407</v>
       </c>
       <c r="E6">
-        <v>1.010250641767349</v>
+        <v>0.8325957031574986</v>
       </c>
       <c r="F6">
-        <v>1.016872161813242</v>
+        <v>1.252622251039726</v>
       </c>
       <c r="G6">
-        <v>1.026255321616036</v>
+        <v>0.7207789949582125</v>
       </c>
       <c r="H6">
-        <v>0.9737266793309755</v>
+        <v>1.033535038052407</v>
       </c>
       <c r="I6">
-        <v>1.012181111450275</v>
+        <v>1.090204676174185</v>
       </c>
       <c r="J6">
-        <v>0.9496288794925696</v>
+        <v>0.7207789949582125</v>
       </c>
       <c r="K6">
-        <v>1.016872161813242</v>
+        <v>1.033535038052407</v>
       </c>
       <c r="L6">
-        <v>1.010250641767349</v>
+        <v>1.090204676174185</v>
       </c>
       <c r="M6">
-        <v>0.9799397606299592</v>
+        <v>0.9054918355661989</v>
       </c>
       <c r="N6">
-        <v>0.9799397606299592</v>
+        <v>0.9054918355661989</v>
       </c>
       <c r="O6">
-        <v>0.9778687335302979</v>
+        <v>0.8811931247632989</v>
       </c>
       <c r="P6">
-        <v>0.9922505610243867</v>
+        <v>0.9481729030616016</v>
       </c>
       <c r="Q6">
-        <v>0.9922505610243867</v>
+        <v>0.9481729030616016</v>
       </c>
       <c r="R6">
-        <v>0.9984059612216004</v>
+        <v>0.969513436809303</v>
       </c>
       <c r="S6">
-        <v>0.9984059612216004</v>
+        <v>0.969513436809303</v>
       </c>
       <c r="T6">
-        <v>0.9981524659117412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000569934230365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000071773946192</v>
+        <v>1.002450364507852</v>
       </c>
       <c r="D7">
-        <v>0.9994299618862946</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="E7">
-        <v>1.000182168223284</v>
+        <v>0.9947146402988527</v>
       </c>
       <c r="F7">
-        <v>1.000071773946192</v>
+        <v>1.005305824566335</v>
       </c>
       <c r="G7">
-        <v>1.000508662062752</v>
+        <v>0.9898715290417044</v>
       </c>
       <c r="H7">
-        <v>0.9996598911831499</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="I7">
-        <v>1.00014998254866</v>
+        <v>1.002072428356198</v>
       </c>
       <c r="J7">
-        <v>0.9994299618862946</v>
+        <v>0.9898715290417044</v>
       </c>
       <c r="K7">
-        <v>1.000071773946192</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="L7">
-        <v>1.000182168223284</v>
+        <v>1.002072428356198</v>
       </c>
       <c r="M7">
-        <v>0.9998060650547891</v>
+        <v>0.9959719786989513</v>
       </c>
       <c r="N7">
-        <v>0.9998060650547891</v>
+        <v>0.9959719786989513</v>
       </c>
       <c r="O7">
-        <v>0.9997573404309094</v>
+        <v>0.9955528658989184</v>
       </c>
       <c r="P7">
-        <v>0.9998946346852567</v>
+        <v>0.9984375706050245</v>
       </c>
       <c r="Q7">
-        <v>0.999894634685257</v>
+        <v>0.9984375706050245</v>
       </c>
       <c r="R7">
-        <v>0.9999389195004907</v>
+        <v>0.9996703665580611</v>
       </c>
       <c r="S7">
-        <v>0.9999389195004907</v>
+        <v>0.9996703665580611</v>
       </c>
       <c r="T7">
-        <v>1.000000406641722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9996305901980188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00018634915213</v>
+        <v>1.000171970726907</v>
       </c>
       <c r="D8">
-        <v>0.9985438923155752</v>
+        <v>0.9998824896140655</v>
       </c>
       <c r="E8">
-        <v>1.00046341514172</v>
+        <v>0.9995906454467812</v>
       </c>
       <c r="F8">
-        <v>1.00018634915213</v>
+        <v>1.000838018215422</v>
       </c>
       <c r="G8">
-        <v>1.001292031133793</v>
+        <v>0.9994112931352556</v>
       </c>
       <c r="H8">
-        <v>0.9991330673832196</v>
+        <v>0.9998824896140655</v>
       </c>
       <c r="I8">
-        <v>1.00038263712978</v>
+        <v>1.000291100118202</v>
       </c>
       <c r="J8">
-        <v>0.9985438923155752</v>
+        <v>0.9994112931352556</v>
       </c>
       <c r="K8">
-        <v>1.00018634915213</v>
+        <v>0.9998824896140655</v>
       </c>
       <c r="L8">
-        <v>1.00046341514172</v>
+        <v>1.000291100118202</v>
       </c>
       <c r="M8">
-        <v>0.9995036537286476</v>
+        <v>0.9998511966267287</v>
       </c>
       <c r="N8">
-        <v>0.9995036537286476</v>
+        <v>0.9998511966267287</v>
       </c>
       <c r="O8">
-        <v>0.9993801249468383</v>
+        <v>0.9997643462334129</v>
       </c>
       <c r="P8">
-        <v>0.9997312188698082</v>
+        <v>0.9998616276225075</v>
       </c>
       <c r="Q8">
-        <v>0.9997312188698082</v>
+        <v>0.9998616276225075</v>
       </c>
       <c r="R8">
-        <v>0.9998450014403886</v>
+        <v>0.999866843120397</v>
       </c>
       <c r="S8">
-        <v>0.9998450014403886</v>
+        <v>0.999866843120397</v>
       </c>
       <c r="T8">
-        <v>1.000000232042703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000030919542772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.0002712416593</v>
+        <v>1.004338887783865</v>
       </c>
       <c r="D9">
-        <v>0.9979533613212735</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="E9">
-        <v>1.000645833984457</v>
+        <v>0.9906508297256662</v>
       </c>
       <c r="F9">
-        <v>1.0002712416593</v>
+        <v>1.009268998854186</v>
       </c>
       <c r="G9">
-        <v>1.001796701853688</v>
+        <v>0.9820332105029348</v>
       </c>
       <c r="H9">
-        <v>0.9987859045989789</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="I9">
-        <v>1.000536623211195</v>
+        <v>1.003629097402164</v>
       </c>
       <c r="J9">
-        <v>0.9979533613212735</v>
+        <v>0.9820332105029348</v>
       </c>
       <c r="K9">
-        <v>1.0002712416593</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="L9">
-        <v>1.000645833984457</v>
+        <v>1.003629097402164</v>
       </c>
       <c r="M9">
-        <v>0.9992995976528654</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="N9">
-        <v>0.9992995976528654</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="O9">
-        <v>0.9991283666349032</v>
+        <v>0.992104379210255</v>
       </c>
       <c r="P9">
-        <v>0.9996234789883435</v>
+        <v>0.9972419936069609</v>
       </c>
       <c r="Q9">
-        <v>0.9996234789883435</v>
+        <v>0.9972419936069609</v>
       </c>
       <c r="R9">
-        <v>0.9997854196560827</v>
+        <v>0.9994474134341667</v>
       </c>
       <c r="S9">
-        <v>0.9997854196560827</v>
+        <v>0.9994474134341667</v>
       </c>
       <c r="T9">
-        <v>0.999998277771482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9993307828640999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000583635060373</v>
+        <v>1.074726818027567</v>
       </c>
       <c r="D10">
-        <v>0.9955886621653676</v>
+        <v>1.033345696088848</v>
       </c>
       <c r="E10">
-        <v>1.001392803656429</v>
+        <v>0.8301244580798469</v>
       </c>
       <c r="F10">
-        <v>1.000583635060373</v>
+        <v>1.257171843259872</v>
       </c>
       <c r="G10">
-        <v>1.003876114896152</v>
+        <v>0.7171007540977713</v>
       </c>
       <c r="H10">
-        <v>0.9973821063771648</v>
+        <v>1.033345696088848</v>
       </c>
       <c r="I10">
-        <v>1.001156894298918</v>
+        <v>1.091756049722221</v>
       </c>
       <c r="J10">
-        <v>0.9955886621653676</v>
+        <v>0.7171007540977713</v>
       </c>
       <c r="K10">
-        <v>1.000583635060373</v>
+        <v>1.033345696088848</v>
       </c>
       <c r="L10">
-        <v>1.001392803656429</v>
+        <v>1.091756049722221</v>
       </c>
       <c r="M10">
-        <v>0.9984907329108984</v>
+        <v>0.9044284019099964</v>
       </c>
       <c r="N10">
-        <v>0.9984907329108984</v>
+        <v>0.9044284019099964</v>
       </c>
       <c r="O10">
-        <v>0.9981211907329873</v>
+        <v>0.87966042063328</v>
       </c>
       <c r="P10">
-        <v>0.9991883669607233</v>
+        <v>0.9474008333029468</v>
       </c>
       <c r="Q10">
-        <v>0.9991883669607233</v>
+        <v>0.9474008333029467</v>
       </c>
       <c r="R10">
-        <v>0.9995371839856357</v>
+        <v>0.9688870489994219</v>
       </c>
       <c r="S10">
-        <v>0.9995371839856357</v>
+        <v>0.9688870489994219</v>
       </c>
       <c r="T10">
-        <v>0.9999967027424007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000704269879354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000990063320019</v>
+        <v>1.00703944176415</v>
       </c>
       <c r="D11">
-        <v>0.992663859997755</v>
+        <v>1.011420286399974</v>
       </c>
       <c r="E11">
-        <v>1.002304263090332</v>
+        <v>0.9849176683818659</v>
       </c>
       <c r="F11">
-        <v>1.000990063320019</v>
+        <v>1.01325783469781</v>
       </c>
       <c r="G11">
-        <v>1.006401996316657</v>
+        <v>0.9704553659465504</v>
       </c>
       <c r="H11">
-        <v>0.9956570745682651</v>
+        <v>1.011420286399974</v>
       </c>
       <c r="I11">
-        <v>1.00192111481096</v>
+        <v>1.005236622255829</v>
       </c>
       <c r="J11">
-        <v>0.992663859997755</v>
+        <v>0.9704553659465504</v>
       </c>
       <c r="K11">
-        <v>1.000990063320019</v>
+        <v>1.011420286399974</v>
       </c>
       <c r="L11">
-        <v>1.002304263090332</v>
+        <v>1.005236622255829</v>
       </c>
       <c r="M11">
-        <v>0.9974840615440437</v>
+        <v>0.9878459941011895</v>
       </c>
       <c r="N11">
-        <v>0.9974840615440437</v>
+        <v>0.9878459941011895</v>
       </c>
       <c r="O11">
-        <v>0.9968750658854507</v>
+        <v>0.9868698855280815</v>
       </c>
       <c r="P11">
-        <v>0.9986527288027022</v>
+        <v>0.9957040915341177</v>
       </c>
       <c r="Q11">
-        <v>0.9986527288027022</v>
+        <v>0.9957040915341177</v>
       </c>
       <c r="R11">
-        <v>0.9992370624320315</v>
+        <v>0.9996331402505818</v>
       </c>
       <c r="S11">
-        <v>0.9992370624320315</v>
+        <v>0.9996331402505818</v>
       </c>
       <c r="T11">
-        <v>0.9999897286839982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9987212032410299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000686080058187</v>
+        <v>1.022399806989472</v>
       </c>
       <c r="D12">
-        <v>1.059174048155853</v>
+        <v>1.009660534947371</v>
       </c>
       <c r="E12">
-        <v>0.9765892316818462</v>
+        <v>0.9490335448421036</v>
       </c>
       <c r="F12">
-        <v>1.000686080058187</v>
+        <v>1.077560747905265</v>
       </c>
       <c r="G12">
-        <v>0.9328914451111769</v>
+        <v>0.9153304434631586</v>
       </c>
       <c r="H12">
-        <v>1.038172774574788</v>
+        <v>1.009660534947371</v>
       </c>
       <c r="I12">
-        <v>0.9836145422628851</v>
+        <v>1.027642303873687</v>
       </c>
       <c r="J12">
-        <v>1.059174048155853</v>
+        <v>0.9153304434631586</v>
       </c>
       <c r="K12">
-        <v>1.000686080058187</v>
+        <v>1.009660534947371</v>
       </c>
       <c r="L12">
-        <v>0.9765892316818462</v>
+        <v>1.027642303873687</v>
       </c>
       <c r="M12">
-        <v>1.01788163991885</v>
+        <v>0.9714863736684226</v>
       </c>
       <c r="N12">
-        <v>1.01788163991885</v>
+        <v>0.9714863736684226</v>
       </c>
       <c r="O12">
-        <v>1.024645351470829</v>
+        <v>0.9640020973929829</v>
       </c>
       <c r="P12">
-        <v>1.012149786631962</v>
+        <v>0.9842110940947387</v>
       </c>
       <c r="Q12">
-        <v>1.012149786631962</v>
+        <v>0.9842110940947387</v>
       </c>
       <c r="R12">
-        <v>1.009283859988519</v>
+        <v>0.9905734543078968</v>
       </c>
       <c r="S12">
-        <v>1.009283859988519</v>
+        <v>0.9905734543078968</v>
       </c>
       <c r="T12">
-        <v>0.9985213536407894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000271230336843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9876536891912985</v>
+        <v>0.9848068221464792</v>
       </c>
       <c r="D13">
-        <v>1.023103828471014</v>
+        <v>0.9865891724814977</v>
       </c>
       <c r="E13">
-        <v>0.997896346735736</v>
+        <v>1.033626074794752</v>
       </c>
       <c r="F13">
-        <v>0.9876536891912985</v>
+        <v>0.9571131867936209</v>
       </c>
       <c r="G13">
-        <v>0.99645491332276</v>
+        <v>1.060144311397037</v>
       </c>
       <c r="H13">
-        <v>1.010273019781603</v>
+        <v>0.9865891724814977</v>
       </c>
       <c r="I13">
-        <v>0.9949101431603904</v>
+        <v>0.9840733489153901</v>
       </c>
       <c r="J13">
-        <v>1.023103828471014</v>
+        <v>1.060144311397037</v>
       </c>
       <c r="K13">
-        <v>0.9876536891912985</v>
+        <v>0.9865891724814977</v>
       </c>
       <c r="L13">
-        <v>0.997896346735736</v>
+        <v>0.9840733489153901</v>
       </c>
       <c r="M13">
-        <v>1.010500087603375</v>
+        <v>1.022108830156214</v>
       </c>
       <c r="N13">
-        <v>1.010500087603375</v>
+        <v>1.022108830156214</v>
       </c>
       <c r="O13">
-        <v>1.010424398329451</v>
+        <v>1.025947911702393</v>
       </c>
       <c r="P13">
-        <v>1.002884621466016</v>
+        <v>1.010268944264642</v>
       </c>
       <c r="Q13">
-        <v>1.002884621466016</v>
+        <v>1.010268944264642</v>
       </c>
       <c r="R13">
-        <v>0.9990768883973367</v>
+        <v>1.004349001318856</v>
       </c>
       <c r="S13">
-        <v>0.9990768883973367</v>
+        <v>1.004349001318856</v>
       </c>
       <c r="T13">
-        <v>1.0017153234438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.001058819421463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001512414148788</v>
+        <v>1.1289846</v>
       </c>
       <c r="D14">
-        <v>1.058311512421291</v>
+        <v>1.055856</v>
       </c>
       <c r="E14">
-        <v>0.9763871249054838</v>
+        <v>0.7065622300000008</v>
       </c>
       <c r="F14">
-        <v>1.001512414148788</v>
+        <v>1.446257500000001</v>
       </c>
       <c r="G14">
-        <v>0.9317531221109095</v>
+        <v>0.5123396</v>
       </c>
       <c r="H14">
-        <v>1.03816226555251</v>
+        <v>1.055856</v>
       </c>
       <c r="I14">
-        <v>0.9837122756878458</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="J14">
-        <v>1.058311512421291</v>
+        <v>0.5123396</v>
       </c>
       <c r="K14">
-        <v>1.001512414148788</v>
+        <v>1.055856</v>
       </c>
       <c r="L14">
-        <v>0.9763871249054838</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="M14">
-        <v>1.017349318663387</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="N14">
-        <v>1.017349318663387</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="O14">
-        <v>1.024286967626428</v>
+        <v>0.7926601433333338</v>
       </c>
       <c r="P14">
-        <v>1.012070350491854</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="Q14">
-        <v>1.012070350491854</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="R14">
-        <v>1.009430866406088</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="S14">
-        <v>1.009430866406088</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="T14">
-        <v>0.9983064524711378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.001513088333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9874287480611282</v>
+        <v>1.049151</v>
       </c>
       <c r="D15">
-        <v>1.023670121237644</v>
+        <v>1.0262858</v>
       </c>
       <c r="E15">
-        <v>0.9978969190310238</v>
+        <v>0.88997483</v>
       </c>
       <c r="F15">
-        <v>0.9874287480611282</v>
+        <v>1.1590836</v>
       </c>
       <c r="G15">
-        <v>0.9969922374555918</v>
+        <v>0.81025202</v>
       </c>
       <c r="H15">
-        <v>1.010256403974374</v>
+        <v>1.0262858</v>
       </c>
       <c r="I15">
-        <v>0.9948449706986171</v>
+        <v>1.0585605</v>
       </c>
       <c r="J15">
-        <v>1.023670121237644</v>
+        <v>0.81025202</v>
       </c>
       <c r="K15">
-        <v>0.9874287480611282</v>
+        <v>1.0262858</v>
       </c>
       <c r="L15">
-        <v>0.9978969190310238</v>
+        <v>1.0585605</v>
       </c>
       <c r="M15">
-        <v>1.010783520134334</v>
+        <v>0.93440626</v>
       </c>
       <c r="N15">
-        <v>1.010783520134334</v>
+        <v>0.93440626</v>
       </c>
       <c r="O15">
-        <v>1.01060781474768</v>
+        <v>0.9195957833333334</v>
       </c>
       <c r="P15">
-        <v>1.002998596109932</v>
+        <v>0.9650327733333333</v>
       </c>
       <c r="Q15">
-        <v>1.002998596109932</v>
+        <v>0.9650327733333333</v>
       </c>
       <c r="R15">
-        <v>0.999106134097731</v>
+        <v>0.98034603</v>
       </c>
       <c r="S15">
-        <v>0.999106134097731</v>
+        <v>0.98034603</v>
       </c>
       <c r="T15">
-        <v>1.00184823340973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.998884625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000114428560579</v>
+        <v>1.0550102</v>
       </c>
       <c r="D16">
-        <v>0.999913423338075</v>
+        <v>1.1248129</v>
       </c>
       <c r="E16">
-        <v>0.9999733154094084</v>
+        <v>0.88627042</v>
       </c>
       <c r="F16">
-        <v>1.000114428560579</v>
+        <v>1.055856</v>
       </c>
       <c r="G16">
-        <v>0.9999185083771348</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H16">
-        <v>0.9999757755742921</v>
+        <v>1.1248129</v>
       </c>
       <c r="I16">
-        <v>1.000014455737446</v>
+        <v>1.0262848</v>
       </c>
       <c r="J16">
-        <v>0.999913423338075</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K16">
-        <v>1.000114428560579</v>
+        <v>1.1248129</v>
       </c>
       <c r="L16">
-        <v>0.9999733154094084</v>
+        <v>1.0262848</v>
       </c>
       <c r="M16">
-        <v>0.9999433693737416</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N16">
-        <v>0.9999433693737416</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O16">
-        <v>0.9999541714405917</v>
+        <v>0.88964224</v>
       </c>
       <c r="P16">
-        <v>1.000000389102687</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q16">
-        <v>1.000000389102687</v>
+        <v>0.9691564</v>
       </c>
       <c r="R16">
-        <v>1.00002889896716</v>
+        <v>1.008070525</v>
       </c>
       <c r="S16">
-        <v>1.00002889896716</v>
+        <v>1.008070525</v>
       </c>
       <c r="T16">
-        <v>0.999984984499489</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998824896140652</v>
+        <v>0.96109931</v>
       </c>
       <c r="D17">
-        <v>0.9994112931352556</v>
+        <v>0.95388618</v>
       </c>
       <c r="E17">
-        <v>1.000291100118202</v>
+        <v>1.0860259</v>
       </c>
       <c r="F17">
-        <v>0.9998824896140652</v>
+        <v>0.90144514</v>
       </c>
       <c r="G17">
-        <v>1.000838018215422</v>
+        <v>1.1559369</v>
       </c>
       <c r="H17">
-        <v>0.9995906454467812</v>
+        <v>0.95388618</v>
       </c>
       <c r="I17">
-        <v>1.000171970726907</v>
+        <v>0.96406768</v>
       </c>
       <c r="J17">
-        <v>0.9994112931352556</v>
+        <v>1.1559369</v>
       </c>
       <c r="K17">
-        <v>0.9998824896140652</v>
+        <v>0.95388618</v>
       </c>
       <c r="L17">
-        <v>1.000291100118202</v>
+        <v>0.96406768</v>
       </c>
       <c r="M17">
-        <v>0.9998511966267285</v>
+        <v>1.06000229</v>
       </c>
       <c r="N17">
-        <v>0.9998511966267285</v>
+        <v>1.06000229</v>
       </c>
       <c r="O17">
-        <v>0.9997643462334128</v>
+        <v>1.068676826666667</v>
       </c>
       <c r="P17">
-        <v>0.9998616276225074</v>
+        <v>1.024630253333333</v>
       </c>
       <c r="Q17">
-        <v>0.9998616276225074</v>
+        <v>1.024630253333333</v>
       </c>
       <c r="R17">
-        <v>0.9998668431203969</v>
+        <v>1.006944235</v>
       </c>
       <c r="S17">
-        <v>0.9998668431203969</v>
+        <v>1.006944235</v>
       </c>
       <c r="T17">
-        <v>1.000030919542772</v>
+        <v>1.003743518333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001444563755097</v>
+        <v>1.052039684931507</v>
       </c>
       <c r="D18">
-        <v>0.9968774809113022</v>
+        <v>1.074874032876712</v>
       </c>
       <c r="E18">
-        <v>1.000421718592845</v>
+        <v>0.8881497486301367</v>
       </c>
       <c r="F18">
-        <v>1.001444563755097</v>
+        <v>1.10817437260274</v>
       </c>
       <c r="G18">
-        <v>1.000980868695259</v>
+        <v>0.7836837772602737</v>
       </c>
       <c r="H18">
-        <v>0.9984907135441722</v>
+        <v>1.074874032876712</v>
       </c>
       <c r="I18">
-        <v>1.000719922892986</v>
+        <v>1.042642836986302</v>
       </c>
       <c r="J18">
-        <v>0.9968774809113022</v>
+        <v>0.7836837772602737</v>
       </c>
       <c r="K18">
-        <v>1.001444563755097</v>
+        <v>1.074874032876712</v>
       </c>
       <c r="L18">
-        <v>1.000421718592845</v>
+        <v>1.042642836986302</v>
       </c>
       <c r="M18">
-        <v>0.9986495997520739</v>
+        <v>0.9131633071232879</v>
       </c>
       <c r="N18">
-        <v>0.9986495997520739</v>
+        <v>0.9131633071232879</v>
       </c>
       <c r="O18">
-        <v>0.9985966376827733</v>
+        <v>0.9048254542922375</v>
       </c>
       <c r="P18">
-        <v>0.9995812544197484</v>
+        <v>0.9670668823744292</v>
       </c>
       <c r="Q18">
-        <v>0.9995812544197484</v>
+        <v>0.9670668823744292</v>
       </c>
       <c r="R18">
-        <v>1.000047081753586</v>
+        <v>0.99401867</v>
       </c>
       <c r="S18">
-        <v>1.000047081753586</v>
+        <v>0.99401867</v>
       </c>
       <c r="T18">
-        <v>0.9998225447319439</v>
+        <v>0.9915940755479452</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004626842067034</v>
+        <v>1.023290529473684</v>
       </c>
       <c r="D19">
-        <v>0.9920024368242675</v>
+        <v>1.029183077368421</v>
       </c>
       <c r="E19">
-        <v>1.000581371685945</v>
+        <v>0.9496715052631578</v>
       </c>
       <c r="F19">
-        <v>1.004626842067034</v>
+        <v>1.053403889473684</v>
       </c>
       <c r="G19">
-        <v>1.000994111155397</v>
+        <v>0.9043287073684211</v>
       </c>
       <c r="H19">
-        <v>0.9964175833875798</v>
+        <v>1.029183077368421</v>
       </c>
       <c r="I19">
-        <v>1.001760807693649</v>
+        <v>1.020865610526316</v>
       </c>
       <c r="J19">
-        <v>0.9920024368242675</v>
+        <v>0.9043287073684211</v>
       </c>
       <c r="K19">
-        <v>1.004626842067034</v>
+        <v>1.029183077368421</v>
       </c>
       <c r="L19">
-        <v>1.000581371685945</v>
+        <v>1.020865610526316</v>
       </c>
       <c r="M19">
-        <v>0.9962919042551062</v>
+        <v>0.9625971589473685</v>
       </c>
       <c r="N19">
-        <v>0.9962919042551062</v>
+        <v>0.9625971589473685</v>
       </c>
       <c r="O19">
-        <v>0.996333797299264</v>
+        <v>0.9582886077192984</v>
       </c>
       <c r="P19">
-        <v>0.9990702168590823</v>
+        <v>0.9847924650877194</v>
       </c>
       <c r="Q19">
-        <v>0.9990702168590823</v>
+        <v>0.9847924650877192</v>
       </c>
       <c r="R19">
-        <v>1.00045937316107</v>
+        <v>0.9958901181578947</v>
       </c>
       <c r="S19">
-        <v>1.00045937316107</v>
+        <v>0.9958901181578947</v>
       </c>
       <c r="T19">
-        <v>0.9993971921356454</v>
+        <v>0.9967905532456139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.021067626842105</v>
+      </c>
+      <c r="D20">
+        <v>0.9989847710526315</v>
+      </c>
+      <c r="E20">
+        <v>0.9506079000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.087502641578947</v>
+      </c>
+      <c r="G20">
+        <v>0.9244841031578949</v>
+      </c>
+      <c r="H20">
+        <v>0.9989847710526315</v>
+      </c>
+      <c r="I20">
+        <v>1.030155214736842</v>
+      </c>
+      <c r="J20">
+        <v>0.9244841031578949</v>
+      </c>
+      <c r="K20">
+        <v>0.9989847710526315</v>
+      </c>
+      <c r="L20">
+        <v>1.030155214736842</v>
+      </c>
+      <c r="M20">
+        <v>0.9773196589473685</v>
+      </c>
+      <c r="N20">
+        <v>0.9773196589473685</v>
+      </c>
+      <c r="O20">
+        <v>0.9684157392982456</v>
+      </c>
+      <c r="P20">
+        <v>0.9845413629824562</v>
+      </c>
+      <c r="Q20">
+        <v>0.9845413629824562</v>
+      </c>
+      <c r="R20">
+        <v>0.9881522150000001</v>
+      </c>
+      <c r="S20">
+        <v>0.9881522150000001</v>
+      </c>
+      <c r="T20">
+        <v>1.002133709561404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9837122756878457</v>
+      </c>
+      <c r="D21">
+        <v>1.001512414148788</v>
+      </c>
+      <c r="E21">
+        <v>1.03816226555251</v>
+      </c>
+      <c r="F21">
+        <v>0.9317531221109095</v>
+      </c>
+      <c r="G21">
+        <v>1.058311512421291</v>
+      </c>
+      <c r="H21">
+        <v>1.001512414148788</v>
+      </c>
+      <c r="I21">
+        <v>0.9763871249054838</v>
+      </c>
+      <c r="J21">
+        <v>1.058311512421291</v>
+      </c>
+      <c r="K21">
+        <v>1.001512414148788</v>
+      </c>
+      <c r="L21">
+        <v>0.9763871249054838</v>
+      </c>
+      <c r="M21">
+        <v>1.017349318663387</v>
+      </c>
+      <c r="N21">
+        <v>1.017349318663387</v>
+      </c>
+      <c r="O21">
+        <v>1.024286967626428</v>
+      </c>
+      <c r="P21">
+        <v>1.012070350491854</v>
+      </c>
+      <c r="Q21">
+        <v>1.012070350491854</v>
+      </c>
+      <c r="R21">
+        <v>1.009430866406088</v>
+      </c>
+      <c r="S21">
+        <v>1.009430866406088</v>
+      </c>
+      <c r="T21">
+        <v>0.9983064524711378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9948449706986171</v>
+      </c>
+      <c r="D22">
+        <v>0.9874287480611282</v>
+      </c>
+      <c r="E22">
+        <v>1.010256403974374</v>
+      </c>
+      <c r="F22">
+        <v>0.9969922374555918</v>
+      </c>
+      <c r="G22">
+        <v>1.023670121237644</v>
+      </c>
+      <c r="H22">
+        <v>0.9874287480611282</v>
+      </c>
+      <c r="I22">
+        <v>0.9978969190310238</v>
+      </c>
+      <c r="J22">
+        <v>1.023670121237644</v>
+      </c>
+      <c r="K22">
+        <v>0.9874287480611282</v>
+      </c>
+      <c r="L22">
+        <v>0.9978969190310238</v>
+      </c>
+      <c r="M22">
+        <v>1.010783520134334</v>
+      </c>
+      <c r="N22">
+        <v>1.010783520134334</v>
+      </c>
+      <c r="O22">
+        <v>1.01060781474768</v>
+      </c>
+      <c r="P22">
+        <v>1.002998596109932</v>
+      </c>
+      <c r="Q22">
+        <v>1.002998596109932</v>
+      </c>
+      <c r="R22">
+        <v>0.999106134097731</v>
+      </c>
+      <c r="S22">
+        <v>0.999106134097731</v>
+      </c>
+      <c r="T22">
+        <v>1.00184823340973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9836145422628851</v>
+      </c>
+      <c r="D23">
+        <v>1.000686080058187</v>
+      </c>
+      <c r="E23">
+        <v>1.038172774574788</v>
+      </c>
+      <c r="F23">
+        <v>0.9328914451111769</v>
+      </c>
+      <c r="G23">
+        <v>1.059174048155853</v>
+      </c>
+      <c r="H23">
+        <v>1.000686080058187</v>
+      </c>
+      <c r="I23">
+        <v>0.9765892316818462</v>
+      </c>
+      <c r="J23">
+        <v>1.059174048155853</v>
+      </c>
+      <c r="K23">
+        <v>1.000686080058187</v>
+      </c>
+      <c r="L23">
+        <v>0.9765892316818462</v>
+      </c>
+      <c r="M23">
+        <v>1.01788163991885</v>
+      </c>
+      <c r="N23">
+        <v>1.01788163991885</v>
+      </c>
+      <c r="O23">
+        <v>1.024645351470829</v>
+      </c>
+      <c r="P23">
+        <v>1.012149786631962</v>
+      </c>
+      <c r="Q23">
+        <v>1.012149786631962</v>
+      </c>
+      <c r="R23">
+        <v>1.009283859988518</v>
+      </c>
+      <c r="S23">
+        <v>1.009283859988518</v>
+      </c>
+      <c r="T23">
+        <v>0.9985213536407894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9949101431603906</v>
+      </c>
+      <c r="D24">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="E24">
+        <v>1.010273019781603</v>
+      </c>
+      <c r="F24">
+        <v>0.9964549133227598</v>
+      </c>
+      <c r="G24">
+        <v>1.023103828471014</v>
+      </c>
+      <c r="H24">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="I24">
+        <v>0.997896346735736</v>
+      </c>
+      <c r="J24">
+        <v>1.023103828471014</v>
+      </c>
+      <c r="K24">
+        <v>0.9876536891912983</v>
+      </c>
+      <c r="L24">
+        <v>0.997896346735736</v>
+      </c>
+      <c r="M24">
+        <v>1.010500087603375</v>
+      </c>
+      <c r="N24">
+        <v>1.010500087603375</v>
+      </c>
+      <c r="O24">
+        <v>1.010424398329451</v>
+      </c>
+      <c r="P24">
+        <v>1.002884621466016</v>
+      </c>
+      <c r="Q24">
+        <v>1.002884621466016</v>
+      </c>
+      <c r="R24">
+        <v>0.9990768883973365</v>
+      </c>
+      <c r="S24">
+        <v>0.9990768883973365</v>
+      </c>
+      <c r="T24">
+        <v>1.0017153234438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9835171172027188</v>
+      </c>
+      <c r="D25">
+        <v>0.9998605269994659</v>
+      </c>
+      <c r="E25">
+        <v>1.038182670615201</v>
+      </c>
+      <c r="F25">
+        <v>0.9340299756612155</v>
+      </c>
+      <c r="G25">
+        <v>1.060035224226006</v>
+      </c>
+      <c r="H25">
+        <v>0.9998605269994659</v>
+      </c>
+      <c r="I25">
+        <v>0.9767914421212887</v>
+      </c>
+      <c r="J25">
+        <v>1.060035224226006</v>
+      </c>
+      <c r="K25">
+        <v>0.9998605269994659</v>
+      </c>
+      <c r="L25">
+        <v>0.9767914421212887</v>
+      </c>
+      <c r="M25">
+        <v>1.018413333173647</v>
+      </c>
+      <c r="N25">
+        <v>1.018413333173647</v>
+      </c>
+      <c r="O25">
+        <v>1.025003112320832</v>
+      </c>
+      <c r="P25">
+        <v>1.01222906444892</v>
+      </c>
+      <c r="Q25">
+        <v>1.01222906444892</v>
+      </c>
+      <c r="R25">
+        <v>1.009136930086557</v>
+      </c>
+      <c r="S25">
+        <v>1.009136930086557</v>
+      </c>
+      <c r="T25">
+        <v>0.9987361594709826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9949753825452189</v>
+      </c>
+      <c r="D26">
+        <v>0.9878784770977405</v>
+      </c>
+      <c r="E26">
+        <v>1.010289494576945</v>
+      </c>
+      <c r="F26">
+        <v>0.9959179888459081</v>
+      </c>
+      <c r="G26">
+        <v>1.022537305708381</v>
+      </c>
+      <c r="H26">
+        <v>0.9878784770977405</v>
+      </c>
+      <c r="I26">
+        <v>0.9978959324035382</v>
+      </c>
+      <c r="J26">
+        <v>1.022537305708381</v>
+      </c>
+      <c r="K26">
+        <v>0.9878784770977405</v>
+      </c>
+      <c r="L26">
+        <v>0.9978959324035382</v>
+      </c>
+      <c r="M26">
+        <v>1.01021661905596</v>
+      </c>
+      <c r="N26">
+        <v>1.01021661905596</v>
+      </c>
+      <c r="O26">
+        <v>1.010240910896288</v>
+      </c>
+      <c r="P26">
+        <v>1.002770571736553</v>
+      </c>
+      <c r="Q26">
+        <v>1.002770571736553</v>
+      </c>
+      <c r="R26">
+        <v>0.9990475480768501</v>
+      </c>
+      <c r="S26">
+        <v>0.9990475480768501</v>
+      </c>
+      <c r="T26">
+        <v>1.001582430196289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.008181254781139</v>
+      </c>
+      <c r="D27">
+        <v>1.009641983629471</v>
+      </c>
+      <c r="E27">
+        <v>0.9823293269153269</v>
+      </c>
+      <c r="F27">
+        <v>1.019299586750895</v>
+      </c>
+      <c r="G27">
+        <v>0.9664732425381248</v>
+      </c>
+      <c r="H27">
+        <v>1.009641983629471</v>
+      </c>
+      <c r="I27">
+        <v>1.00758013732935</v>
+      </c>
+      <c r="J27">
+        <v>0.9664732425381248</v>
+      </c>
+      <c r="K27">
+        <v>1.009641983629471</v>
+      </c>
+      <c r="L27">
+        <v>1.00758013732935</v>
+      </c>
+      <c r="M27">
+        <v>0.9870266899337377</v>
+      </c>
+      <c r="N27">
+        <v>0.9870266899337377</v>
+      </c>
+      <c r="O27">
+        <v>0.9854609022609341</v>
+      </c>
+      <c r="P27">
+        <v>0.9945651211656488</v>
+      </c>
+      <c r="Q27">
+        <v>0.9945651211656488</v>
+      </c>
+      <c r="R27">
+        <v>0.9983343367816043</v>
+      </c>
+      <c r="S27">
+        <v>0.9983343367816043</v>
+      </c>
+      <c r="T27">
+        <v>0.9989175886573843</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9991914780642411</v>
+      </c>
+      <c r="D28">
+        <v>1.008050350949294</v>
+      </c>
+      <c r="E28">
+        <v>1.002714382240196</v>
+      </c>
+      <c r="F28">
+        <v>0.9862800216688802</v>
+      </c>
+      <c r="G28">
+        <v>1.000222749143409</v>
+      </c>
+      <c r="H28">
+        <v>1.008050350949294</v>
+      </c>
+      <c r="I28">
+        <v>0.9955458589260724</v>
+      </c>
+      <c r="J28">
+        <v>1.000222749143409</v>
+      </c>
+      <c r="K28">
+        <v>1.008050350949294</v>
+      </c>
+      <c r="L28">
+        <v>0.9955458589260724</v>
+      </c>
+      <c r="M28">
+        <v>0.9978843040347407</v>
+      </c>
+      <c r="N28">
+        <v>0.9978843040347407</v>
+      </c>
+      <c r="O28">
+        <v>0.999494330103226</v>
+      </c>
+      <c r="P28">
+        <v>1.001272986339592</v>
+      </c>
+      <c r="Q28">
+        <v>1.001272986339592</v>
+      </c>
+      <c r="R28">
+        <v>1.002967327492017</v>
+      </c>
+      <c r="S28">
+        <v>1.002967327492017</v>
+      </c>
+      <c r="T28">
+        <v>0.9986674734986821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9752104390095824</v>
+      </c>
+      <c r="D29">
+        <v>0.9869974243131384</v>
+      </c>
+      <c r="E29">
+        <v>1.056582060824473</v>
+      </c>
+      <c r="F29">
+        <v>0.915698902025607</v>
+      </c>
+      <c r="G29">
+        <v>1.093746879381462</v>
+      </c>
+      <c r="H29">
+        <v>0.9869974243131384</v>
+      </c>
+      <c r="I29">
+        <v>0.9703598313357444</v>
+      </c>
+      <c r="J29">
+        <v>1.093746879381462</v>
+      </c>
+      <c r="K29">
+        <v>0.9869974243131384</v>
+      </c>
+      <c r="L29">
+        <v>0.9703598313357444</v>
+      </c>
+      <c r="M29">
+        <v>1.032053355358603</v>
+      </c>
+      <c r="N29">
+        <v>1.032053355358603</v>
+      </c>
+      <c r="O29">
+        <v>1.040229590513893</v>
+      </c>
+      <c r="P29">
+        <v>1.017034711676782</v>
+      </c>
+      <c r="Q29">
+        <v>1.017034711676782</v>
+      </c>
+      <c r="R29">
+        <v>1.009525389835871</v>
+      </c>
+      <c r="S29">
+        <v>1.009525389835871</v>
+      </c>
+      <c r="T29">
+        <v>0.9997659228150013</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.007603751835781</v>
+        <v>1.018642636507628</v>
       </c>
       <c r="D4">
-        <v>1.013781841465721</v>
+        <v>1.011454772793145</v>
       </c>
       <c r="E4">
-        <v>0.9839556262023638</v>
+        <v>0.9580468849328783</v>
       </c>
       <c r="F4">
-        <v>1.012101945442998</v>
+        <v>1.059728932958995</v>
       </c>
       <c r="G4">
-        <v>0.967429858257015</v>
+        <v>0.92818901531111</v>
       </c>
       <c r="H4">
-        <v>1.013781841465721</v>
+        <v>1.011454772793145</v>
       </c>
       <c r="I4">
-        <v>1.005061329194135</v>
+        <v>1.021600605079706</v>
       </c>
       <c r="J4">
-        <v>0.967429858257015</v>
+        <v>0.92818901531111</v>
       </c>
       <c r="K4">
-        <v>1.013781841465721</v>
+        <v>1.011454772793145</v>
       </c>
       <c r="L4">
-        <v>1.005061329194135</v>
+        <v>1.021600605079706</v>
       </c>
       <c r="M4">
-        <v>0.9862455937255747</v>
+        <v>0.974894810195408</v>
       </c>
       <c r="N4">
-        <v>0.9862455937255747</v>
+        <v>0.974894810195408</v>
       </c>
       <c r="O4">
-        <v>0.9854822712178377</v>
+        <v>0.9692788351078981</v>
       </c>
       <c r="P4">
-        <v>0.9954243429722903</v>
+        <v>0.9870814643946537</v>
       </c>
       <c r="Q4">
-        <v>0.9954243429722903</v>
+        <v>0.9870814643946537</v>
       </c>
       <c r="R4">
-        <v>1.000013717595648</v>
+        <v>0.9931747914942766</v>
       </c>
       <c r="S4">
-        <v>1.000013717595648</v>
+        <v>0.9931747914942766</v>
       </c>
       <c r="T4">
-        <v>0.9983223920663357</v>
+        <v>0.9996104745972438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.022240504243515</v>
+        <v>1.011783353699083</v>
       </c>
       <c r="D5">
-        <v>1.013906943004324</v>
+        <v>0.9936405684352914</v>
       </c>
       <c r="E5">
-        <v>0.949971298623917</v>
+        <v>0.9715123756995108</v>
       </c>
       <c r="F5">
-        <v>1.070956680972623</v>
+        <v>1.057380411990247</v>
       </c>
       <c r="G5">
-        <v>0.9142559417867451</v>
+        <v>0.9601713822499582</v>
       </c>
       <c r="H5">
-        <v>1.013906943004324</v>
+        <v>0.9936405684352914</v>
       </c>
       <c r="I5">
-        <v>1.025669951383289</v>
+        <v>1.01924951944167</v>
       </c>
       <c r="J5">
-        <v>0.9142559417867451</v>
+        <v>0.9601713822499582</v>
       </c>
       <c r="K5">
-        <v>1.013906943004324</v>
+        <v>0.9936405684352914</v>
       </c>
       <c r="L5">
-        <v>1.025669951383289</v>
+        <v>1.01924951944167</v>
       </c>
       <c r="M5">
-        <v>0.9699629465850168</v>
+        <v>0.9897104508458141</v>
       </c>
       <c r="N5">
-        <v>0.9699629465850168</v>
+        <v>0.9897104508458141</v>
       </c>
       <c r="O5">
-        <v>0.9632990639313169</v>
+        <v>0.9836444257970464</v>
       </c>
       <c r="P5">
-        <v>0.9846109453914527</v>
+        <v>0.9910204900423065</v>
       </c>
       <c r="Q5">
-        <v>0.9846109453914527</v>
+        <v>0.9910204900423065</v>
       </c>
       <c r="R5">
-        <v>0.9919349447946706</v>
+        <v>0.9916755096405527</v>
       </c>
       <c r="S5">
-        <v>0.9919349447946706</v>
+        <v>0.9916755096405527</v>
       </c>
       <c r="T5">
-        <v>0.9995002200024022</v>
+        <v>1.002289601919294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.073682942000157</v>
+        <v>1.007603751835781</v>
       </c>
       <c r="D6">
-        <v>1.033535038052407</v>
+        <v>1.013781841465721</v>
       </c>
       <c r="E6">
-        <v>0.8325957031574986</v>
+        <v>0.9839556262023638</v>
       </c>
       <c r="F6">
-        <v>1.252622251039726</v>
+        <v>1.012101945442998</v>
       </c>
       <c r="G6">
-        <v>0.7207789949582125</v>
+        <v>0.967429858257015</v>
       </c>
       <c r="H6">
-        <v>1.033535038052407</v>
+        <v>1.013781841465721</v>
       </c>
       <c r="I6">
-        <v>1.090204676174185</v>
+        <v>1.005061329194135</v>
       </c>
       <c r="J6">
-        <v>0.7207789949582125</v>
+        <v>0.967429858257015</v>
       </c>
       <c r="K6">
-        <v>1.033535038052407</v>
+        <v>1.013781841465721</v>
       </c>
       <c r="L6">
-        <v>1.090204676174185</v>
+        <v>1.005061329194135</v>
       </c>
       <c r="M6">
-        <v>0.9054918355661989</v>
+        <v>0.9862455937255747</v>
       </c>
       <c r="N6">
-        <v>0.9054918355661989</v>
+        <v>0.9862455937255747</v>
       </c>
       <c r="O6">
-        <v>0.8811931247632989</v>
+        <v>0.9854822712178377</v>
       </c>
       <c r="P6">
-        <v>0.9481729030616016</v>
+        <v>0.9954243429722903</v>
       </c>
       <c r="Q6">
-        <v>0.9481729030616016</v>
+        <v>0.9954243429722903</v>
       </c>
       <c r="R6">
-        <v>0.969513436809303</v>
+        <v>1.000013717595648</v>
       </c>
       <c r="S6">
-        <v>0.969513436809303</v>
+        <v>1.000013717595648</v>
       </c>
       <c r="T6">
-        <v>1.000569934230365</v>
+        <v>0.9983223920663357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002450364507852</v>
+        <v>1.022240504243515</v>
       </c>
       <c r="D7">
-        <v>1.003368754417171</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="E7">
-        <v>0.9947146402988527</v>
+        <v>0.949971298623917</v>
       </c>
       <c r="F7">
-        <v>1.005305824566335</v>
+        <v>1.070956680972623</v>
       </c>
       <c r="G7">
-        <v>0.9898715290417044</v>
+        <v>0.9142559417867451</v>
       </c>
       <c r="H7">
-        <v>1.003368754417171</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="I7">
-        <v>1.002072428356198</v>
+        <v>1.025669951383289</v>
       </c>
       <c r="J7">
-        <v>0.9898715290417044</v>
+        <v>0.9142559417867451</v>
       </c>
       <c r="K7">
-        <v>1.003368754417171</v>
+        <v>1.013906943004324</v>
       </c>
       <c r="L7">
-        <v>1.002072428356198</v>
+        <v>1.025669951383289</v>
       </c>
       <c r="M7">
-        <v>0.9959719786989513</v>
+        <v>0.9699629465850168</v>
       </c>
       <c r="N7">
-        <v>0.9959719786989513</v>
+        <v>0.9699629465850168</v>
       </c>
       <c r="O7">
-        <v>0.9955528658989184</v>
+        <v>0.9632990639313169</v>
       </c>
       <c r="P7">
-        <v>0.9984375706050245</v>
+        <v>0.9846109453914527</v>
       </c>
       <c r="Q7">
-        <v>0.9984375706050245</v>
+        <v>0.9846109453914527</v>
       </c>
       <c r="R7">
-        <v>0.9996703665580611</v>
+        <v>0.9919349447946706</v>
       </c>
       <c r="S7">
-        <v>0.9996703665580611</v>
+        <v>0.9919349447946706</v>
       </c>
       <c r="T7">
-        <v>0.9996305901980188</v>
+        <v>0.9995002200024022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000171970726907</v>
+        <v>1.073682942000157</v>
       </c>
       <c r="D8">
-        <v>0.9998824896140655</v>
+        <v>1.033535038052407</v>
       </c>
       <c r="E8">
-        <v>0.9995906454467812</v>
+        <v>0.8325957031574986</v>
       </c>
       <c r="F8">
-        <v>1.000838018215422</v>
+        <v>1.252622251039726</v>
       </c>
       <c r="G8">
-        <v>0.9994112931352556</v>
+        <v>0.7207789949582125</v>
       </c>
       <c r="H8">
-        <v>0.9998824896140655</v>
+        <v>1.033535038052407</v>
       </c>
       <c r="I8">
-        <v>1.000291100118202</v>
+        <v>1.090204676174185</v>
       </c>
       <c r="J8">
-        <v>0.9994112931352556</v>
+        <v>0.7207789949582125</v>
       </c>
       <c r="K8">
-        <v>0.9998824896140655</v>
+        <v>1.033535038052407</v>
       </c>
       <c r="L8">
-        <v>1.000291100118202</v>
+        <v>1.090204676174185</v>
       </c>
       <c r="M8">
-        <v>0.9998511966267287</v>
+        <v>0.9054918355661989</v>
       </c>
       <c r="N8">
-        <v>0.9998511966267287</v>
+        <v>0.9054918355661989</v>
       </c>
       <c r="O8">
-        <v>0.9997643462334129</v>
+        <v>0.8811931247632989</v>
       </c>
       <c r="P8">
-        <v>0.9998616276225075</v>
+        <v>0.9481729030616016</v>
       </c>
       <c r="Q8">
-        <v>0.9998616276225075</v>
+        <v>0.9481729030616016</v>
       </c>
       <c r="R8">
-        <v>0.999866843120397</v>
+        <v>0.969513436809303</v>
       </c>
       <c r="S8">
-        <v>0.999866843120397</v>
+        <v>0.969513436809303</v>
       </c>
       <c r="T8">
-        <v>1.000030919542772</v>
+        <v>1.000569934230365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004338887783865</v>
+        <v>1.002450364507852</v>
       </c>
       <c r="D9">
-        <v>1.006063672915784</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="E9">
-        <v>0.9906508297256662</v>
+        <v>0.9947146402988527</v>
       </c>
       <c r="F9">
-        <v>1.009268998854186</v>
+        <v>1.005305824566335</v>
       </c>
       <c r="G9">
-        <v>0.9820332105029348</v>
+        <v>0.9898715290417044</v>
       </c>
       <c r="H9">
-        <v>1.006063672915784</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="I9">
-        <v>1.003629097402164</v>
+        <v>1.002072428356198</v>
       </c>
       <c r="J9">
-        <v>0.9820332105029348</v>
+        <v>0.9898715290417044</v>
       </c>
       <c r="K9">
-        <v>1.006063672915784</v>
+        <v>1.003368754417171</v>
       </c>
       <c r="L9">
-        <v>1.003629097402164</v>
+        <v>1.002072428356198</v>
       </c>
       <c r="M9">
-        <v>0.9928311539525493</v>
+        <v>0.9959719786989513</v>
       </c>
       <c r="N9">
-        <v>0.9928311539525493</v>
+        <v>0.9959719786989513</v>
       </c>
       <c r="O9">
-        <v>0.992104379210255</v>
+        <v>0.9955528658989184</v>
       </c>
       <c r="P9">
-        <v>0.9972419936069609</v>
+        <v>0.9984375706050245</v>
       </c>
       <c r="Q9">
-        <v>0.9972419936069609</v>
+        <v>0.9984375706050245</v>
       </c>
       <c r="R9">
-        <v>0.9994474134341667</v>
+        <v>0.9996703665580611</v>
       </c>
       <c r="S9">
-        <v>0.9994474134341667</v>
+        <v>0.9996703665580611</v>
       </c>
       <c r="T9">
-        <v>0.9993307828640999</v>
+        <v>0.9996305901980188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.074726818027567</v>
+        <v>1.000171970726907</v>
       </c>
       <c r="D10">
-        <v>1.033345696088848</v>
+        <v>0.9998824896140655</v>
       </c>
       <c r="E10">
-        <v>0.8301244580798469</v>
+        <v>0.9995906454467812</v>
       </c>
       <c r="F10">
-        <v>1.257171843259872</v>
+        <v>1.000838018215422</v>
       </c>
       <c r="G10">
-        <v>0.7171007540977713</v>
+        <v>0.9994112931352556</v>
       </c>
       <c r="H10">
-        <v>1.033345696088848</v>
+        <v>0.9998824896140655</v>
       </c>
       <c r="I10">
-        <v>1.091756049722221</v>
+        <v>1.000291100118202</v>
       </c>
       <c r="J10">
-        <v>0.7171007540977713</v>
+        <v>0.9994112931352556</v>
       </c>
       <c r="K10">
-        <v>1.033345696088848</v>
+        <v>0.9998824896140655</v>
       </c>
       <c r="L10">
-        <v>1.091756049722221</v>
+        <v>1.000291100118202</v>
       </c>
       <c r="M10">
-        <v>0.9044284019099964</v>
+        <v>0.9998511966267287</v>
       </c>
       <c r="N10">
-        <v>0.9044284019099964</v>
+        <v>0.9998511966267287</v>
       </c>
       <c r="O10">
-        <v>0.87966042063328</v>
+        <v>0.9997643462334129</v>
       </c>
       <c r="P10">
-        <v>0.9474008333029468</v>
+        <v>0.9998616276225075</v>
       </c>
       <c r="Q10">
-        <v>0.9474008333029467</v>
+        <v>0.9998616276225075</v>
       </c>
       <c r="R10">
-        <v>0.9688870489994219</v>
+        <v>0.999866843120397</v>
       </c>
       <c r="S10">
-        <v>0.9688870489994219</v>
+        <v>0.999866843120397</v>
       </c>
       <c r="T10">
-        <v>1.000704269879354</v>
+        <v>1.000030919542772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00703944176415</v>
+        <v>1.004338887783865</v>
       </c>
       <c r="D11">
-        <v>1.011420286399974</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="E11">
-        <v>0.9849176683818659</v>
+        <v>0.9906508297256662</v>
       </c>
       <c r="F11">
-        <v>1.01325783469781</v>
+        <v>1.009268998854186</v>
       </c>
       <c r="G11">
-        <v>0.9704553659465504</v>
+        <v>0.9820332105029348</v>
       </c>
       <c r="H11">
-        <v>1.011420286399974</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="I11">
-        <v>1.005236622255829</v>
+        <v>1.003629097402164</v>
       </c>
       <c r="J11">
-        <v>0.9704553659465504</v>
+        <v>0.9820332105029348</v>
       </c>
       <c r="K11">
-        <v>1.011420286399974</v>
+        <v>1.006063672915784</v>
       </c>
       <c r="L11">
-        <v>1.005236622255829</v>
+        <v>1.003629097402164</v>
       </c>
       <c r="M11">
-        <v>0.9878459941011895</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="N11">
-        <v>0.9878459941011895</v>
+        <v>0.9928311539525493</v>
       </c>
       <c r="O11">
-        <v>0.9868698855280815</v>
+        <v>0.992104379210255</v>
       </c>
       <c r="P11">
-        <v>0.9957040915341177</v>
+        <v>0.9972419936069609</v>
       </c>
       <c r="Q11">
-        <v>0.9957040915341177</v>
+        <v>0.9972419936069609</v>
       </c>
       <c r="R11">
-        <v>0.9996331402505818</v>
+        <v>0.9994474134341667</v>
       </c>
       <c r="S11">
-        <v>0.9996331402505818</v>
+        <v>0.9994474134341667</v>
       </c>
       <c r="T11">
-        <v>0.9987212032410299</v>
+        <v>0.9993307828640999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.022399806989472</v>
+        <v>1.074726818027567</v>
       </c>
       <c r="D12">
-        <v>1.009660534947371</v>
+        <v>1.033345696088848</v>
       </c>
       <c r="E12">
-        <v>0.9490335448421036</v>
+        <v>0.8301244580798469</v>
       </c>
       <c r="F12">
-        <v>1.077560747905265</v>
+        <v>1.257171843259872</v>
       </c>
       <c r="G12">
-        <v>0.9153304434631586</v>
+        <v>0.7171007540977713</v>
       </c>
       <c r="H12">
-        <v>1.009660534947371</v>
+        <v>1.033345696088848</v>
       </c>
       <c r="I12">
-        <v>1.027642303873687</v>
+        <v>1.091756049722221</v>
       </c>
       <c r="J12">
-        <v>0.9153304434631586</v>
+        <v>0.7171007540977713</v>
       </c>
       <c r="K12">
-        <v>1.009660534947371</v>
+        <v>1.033345696088848</v>
       </c>
       <c r="L12">
-        <v>1.027642303873687</v>
+        <v>1.091756049722221</v>
       </c>
       <c r="M12">
-        <v>0.9714863736684226</v>
+        <v>0.9044284019099964</v>
       </c>
       <c r="N12">
-        <v>0.9714863736684226</v>
+        <v>0.9044284019099964</v>
       </c>
       <c r="O12">
-        <v>0.9640020973929829</v>
+        <v>0.87966042063328</v>
       </c>
       <c r="P12">
-        <v>0.9842110940947387</v>
+        <v>0.9474008333029468</v>
       </c>
       <c r="Q12">
-        <v>0.9842110940947387</v>
+        <v>0.9474008333029467</v>
       </c>
       <c r="R12">
-        <v>0.9905734543078968</v>
+        <v>0.9688870489994219</v>
       </c>
       <c r="S12">
-        <v>0.9905734543078968</v>
+        <v>0.9688870489994219</v>
       </c>
       <c r="T12">
-        <v>1.000271230336843</v>
+        <v>1.000704269879354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9848068221464792</v>
+        <v>1.00703944176415</v>
       </c>
       <c r="D13">
-        <v>0.9865891724814977</v>
+        <v>1.011420286399974</v>
       </c>
       <c r="E13">
-        <v>1.033626074794752</v>
+        <v>0.9849176683818659</v>
       </c>
       <c r="F13">
-        <v>0.9571131867936209</v>
+        <v>1.01325783469781</v>
       </c>
       <c r="G13">
-        <v>1.060144311397037</v>
+        <v>0.9704553659465504</v>
       </c>
       <c r="H13">
-        <v>0.9865891724814977</v>
+        <v>1.011420286399974</v>
       </c>
       <c r="I13">
-        <v>0.9840733489153901</v>
+        <v>1.005236622255829</v>
       </c>
       <c r="J13">
-        <v>1.060144311397037</v>
+        <v>0.9704553659465504</v>
       </c>
       <c r="K13">
-        <v>0.9865891724814977</v>
+        <v>1.011420286399974</v>
       </c>
       <c r="L13">
-        <v>0.9840733489153901</v>
+        <v>1.005236622255829</v>
       </c>
       <c r="M13">
-        <v>1.022108830156214</v>
+        <v>0.9878459941011895</v>
       </c>
       <c r="N13">
-        <v>1.022108830156214</v>
+        <v>0.9878459941011895</v>
       </c>
       <c r="O13">
-        <v>1.025947911702393</v>
+        <v>0.9868698855280815</v>
       </c>
       <c r="P13">
-        <v>1.010268944264642</v>
+        <v>0.9957040915341177</v>
       </c>
       <c r="Q13">
-        <v>1.010268944264642</v>
+        <v>0.9957040915341177</v>
       </c>
       <c r="R13">
-        <v>1.004349001318856</v>
+        <v>0.9996331402505818</v>
       </c>
       <c r="S13">
-        <v>1.004349001318856</v>
+        <v>0.9996331402505818</v>
       </c>
       <c r="T13">
-        <v>1.001058819421463</v>
+        <v>0.9987212032410299</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.1289846</v>
+        <v>1.022399806989472</v>
       </c>
       <c r="D14">
-        <v>1.055856</v>
+        <v>1.009660534947371</v>
       </c>
       <c r="E14">
-        <v>0.7065622300000008</v>
+        <v>0.9490335448421036</v>
       </c>
       <c r="F14">
-        <v>1.446257500000001</v>
+        <v>1.077560747905265</v>
       </c>
       <c r="G14">
-        <v>0.5123396</v>
+        <v>0.9153304434631586</v>
       </c>
       <c r="H14">
-        <v>1.055856</v>
+        <v>1.009660534947371</v>
       </c>
       <c r="I14">
-        <v>1.159078600000001</v>
+        <v>1.027642303873687</v>
       </c>
       <c r="J14">
-        <v>0.5123396</v>
+        <v>0.9153304434631586</v>
       </c>
       <c r="K14">
-        <v>1.055856</v>
+        <v>1.009660534947371</v>
       </c>
       <c r="L14">
-        <v>1.159078600000001</v>
+        <v>1.027642303873687</v>
       </c>
       <c r="M14">
-        <v>0.8357091000000003</v>
+        <v>0.9714863736684226</v>
       </c>
       <c r="N14">
-        <v>0.8357091000000003</v>
+        <v>0.9714863736684226</v>
       </c>
       <c r="O14">
-        <v>0.7926601433333338</v>
+        <v>0.9640020973929829</v>
       </c>
       <c r="P14">
-        <v>0.9090914000000003</v>
+        <v>0.9842110940947387</v>
       </c>
       <c r="Q14">
-        <v>0.9090914000000003</v>
+        <v>0.9842110940947387</v>
       </c>
       <c r="R14">
-        <v>0.9457825500000003</v>
+        <v>0.9905734543078968</v>
       </c>
       <c r="S14">
-        <v>0.9457825500000003</v>
+        <v>0.9905734543078968</v>
       </c>
       <c r="T14">
-        <v>1.001513088333334</v>
+        <v>1.000271230336843</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.049151</v>
+        <v>0.9848068221464792</v>
       </c>
       <c r="D15">
-        <v>1.0262858</v>
+        <v>0.9865891724814977</v>
       </c>
       <c r="E15">
-        <v>0.88997483</v>
+        <v>1.033626074794752</v>
       </c>
       <c r="F15">
-        <v>1.1590836</v>
+        <v>0.9571131867936209</v>
       </c>
       <c r="G15">
-        <v>0.81025202</v>
+        <v>1.060144311397037</v>
       </c>
       <c r="H15">
-        <v>1.0262858</v>
+        <v>0.9865891724814977</v>
       </c>
       <c r="I15">
-        <v>1.0585605</v>
+        <v>0.9840733489153901</v>
       </c>
       <c r="J15">
-        <v>0.81025202</v>
+        <v>1.060144311397037</v>
       </c>
       <c r="K15">
-        <v>1.0262858</v>
+        <v>0.9865891724814977</v>
       </c>
       <c r="L15">
-        <v>1.0585605</v>
+        <v>0.9840733489153901</v>
       </c>
       <c r="M15">
-        <v>0.93440626</v>
+        <v>1.022108830156214</v>
       </c>
       <c r="N15">
-        <v>0.93440626</v>
+        <v>1.022108830156214</v>
       </c>
       <c r="O15">
-        <v>0.9195957833333334</v>
+        <v>1.025947911702393</v>
       </c>
       <c r="P15">
-        <v>0.9650327733333333</v>
+        <v>1.010268944264642</v>
       </c>
       <c r="Q15">
-        <v>0.9650327733333333</v>
+        <v>1.010268944264642</v>
       </c>
       <c r="R15">
-        <v>0.98034603</v>
+        <v>1.004349001318856</v>
       </c>
       <c r="S15">
-        <v>0.98034603</v>
+        <v>1.004349001318856</v>
       </c>
       <c r="T15">
-        <v>0.998884625</v>
+        <v>1.001058819421463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0550102</v>
+        <v>1.1289846</v>
       </c>
       <c r="D16">
-        <v>1.1248129</v>
+        <v>1.055856</v>
       </c>
       <c r="E16">
-        <v>0.88627042</v>
+        <v>0.7065622300000008</v>
       </c>
       <c r="F16">
+        <v>1.446257500000001</v>
+      </c>
+      <c r="G16">
+        <v>0.5123396</v>
+      </c>
+      <c r="H16">
         <v>1.055856</v>
       </c>
-      <c r="G16">
-        <v>0.7563714999999999</v>
-      </c>
-      <c r="H16">
-        <v>1.1248129</v>
-      </c>
       <c r="I16">
-        <v>1.0262848</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="J16">
-        <v>0.7563714999999999</v>
+        <v>0.5123396</v>
       </c>
       <c r="K16">
-        <v>1.1248129</v>
+        <v>1.055856</v>
       </c>
       <c r="L16">
-        <v>1.0262848</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="M16">
-        <v>0.8913281499999999</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="N16">
-        <v>0.8913281499999999</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="O16">
-        <v>0.88964224</v>
+        <v>0.7926601433333338</v>
       </c>
       <c r="P16">
-        <v>0.9691563999999998</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="Q16">
-        <v>0.9691564</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="R16">
-        <v>1.008070525</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="S16">
-        <v>1.008070525</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="T16">
-        <v>0.9841009700000001</v>
+        <v>1.001513088333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.96109931</v>
+        <v>1.049151</v>
       </c>
       <c r="D17">
-        <v>0.95388618</v>
+        <v>1.0262858</v>
       </c>
       <c r="E17">
-        <v>1.0860259</v>
+        <v>0.88997483</v>
       </c>
       <c r="F17">
-        <v>0.90144514</v>
+        <v>1.1590836</v>
       </c>
       <c r="G17">
-        <v>1.1559369</v>
+        <v>0.81025202</v>
       </c>
       <c r="H17">
-        <v>0.95388618</v>
+        <v>1.0262858</v>
       </c>
       <c r="I17">
-        <v>0.96406768</v>
+        <v>1.0585605</v>
       </c>
       <c r="J17">
-        <v>1.1559369</v>
+        <v>0.81025202</v>
       </c>
       <c r="K17">
-        <v>0.95388618</v>
+        <v>1.0262858</v>
       </c>
       <c r="L17">
-        <v>0.96406768</v>
+        <v>1.0585605</v>
       </c>
       <c r="M17">
-        <v>1.06000229</v>
+        <v>0.93440626</v>
       </c>
       <c r="N17">
-        <v>1.06000229</v>
+        <v>0.93440626</v>
       </c>
       <c r="O17">
-        <v>1.068676826666667</v>
+        <v>0.9195957833333334</v>
       </c>
       <c r="P17">
-        <v>1.024630253333333</v>
+        <v>0.9650327733333333</v>
       </c>
       <c r="Q17">
-        <v>1.024630253333333</v>
+        <v>0.9650327733333333</v>
       </c>
       <c r="R17">
-        <v>1.006944235</v>
+        <v>0.98034603</v>
       </c>
       <c r="S17">
-        <v>1.006944235</v>
+        <v>0.98034603</v>
       </c>
       <c r="T17">
-        <v>1.003743518333333</v>
+        <v>0.998884625</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.052039684931507</v>
+        <v>1.0550102</v>
       </c>
       <c r="D18">
-        <v>1.074874032876712</v>
+        <v>1.1248129</v>
       </c>
       <c r="E18">
-        <v>0.8881497486301367</v>
+        <v>0.88627042</v>
       </c>
       <c r="F18">
-        <v>1.10817437260274</v>
+        <v>1.055856</v>
       </c>
       <c r="G18">
-        <v>0.7836837772602737</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H18">
-        <v>1.074874032876712</v>
+        <v>1.1248129</v>
       </c>
       <c r="I18">
-        <v>1.042642836986302</v>
+        <v>1.0262848</v>
       </c>
       <c r="J18">
-        <v>0.7836837772602737</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K18">
-        <v>1.074874032876712</v>
+        <v>1.1248129</v>
       </c>
       <c r="L18">
-        <v>1.042642836986302</v>
+        <v>1.0262848</v>
       </c>
       <c r="M18">
-        <v>0.9131633071232879</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N18">
-        <v>0.9131633071232879</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O18">
-        <v>0.9048254542922375</v>
+        <v>0.88964224</v>
       </c>
       <c r="P18">
-        <v>0.9670668823744292</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q18">
-        <v>0.9670668823744292</v>
+        <v>0.9691564</v>
       </c>
       <c r="R18">
-        <v>0.99401867</v>
+        <v>1.008070525</v>
       </c>
       <c r="S18">
-        <v>0.99401867</v>
+        <v>1.008070525</v>
       </c>
       <c r="T18">
-        <v>0.9915940755479452</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.023290529473684</v>
+        <v>0.96109931</v>
       </c>
       <c r="D19">
-        <v>1.029183077368421</v>
+        <v>0.95388618</v>
       </c>
       <c r="E19">
-        <v>0.9496715052631578</v>
+        <v>1.0860259</v>
       </c>
       <c r="F19">
-        <v>1.053403889473684</v>
+        <v>0.90144514</v>
       </c>
       <c r="G19">
-        <v>0.9043287073684211</v>
+        <v>1.1559369</v>
       </c>
       <c r="H19">
-        <v>1.029183077368421</v>
+        <v>0.95388618</v>
       </c>
       <c r="I19">
-        <v>1.020865610526316</v>
+        <v>0.96406768</v>
       </c>
       <c r="J19">
-        <v>0.9043287073684211</v>
+        <v>1.1559369</v>
       </c>
       <c r="K19">
-        <v>1.029183077368421</v>
+        <v>0.95388618</v>
       </c>
       <c r="L19">
-        <v>1.020865610526316</v>
+        <v>0.96406768</v>
       </c>
       <c r="M19">
-        <v>0.9625971589473685</v>
+        <v>1.06000229</v>
       </c>
       <c r="N19">
-        <v>0.9625971589473685</v>
+        <v>1.06000229</v>
       </c>
       <c r="O19">
-        <v>0.9582886077192984</v>
+        <v>1.068676826666667</v>
       </c>
       <c r="P19">
-        <v>0.9847924650877194</v>
+        <v>1.024630253333333</v>
       </c>
       <c r="Q19">
-        <v>0.9847924650877192</v>
+        <v>1.024630253333333</v>
       </c>
       <c r="R19">
-        <v>0.9958901181578947</v>
+        <v>1.006944235</v>
       </c>
       <c r="S19">
-        <v>0.9958901181578947</v>
+        <v>1.006944235</v>
       </c>
       <c r="T19">
-        <v>0.9967905532456139</v>
+        <v>1.003743518333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.021067626842105</v>
+        <v>1.052039684931507</v>
       </c>
       <c r="D20">
-        <v>0.9989847710526315</v>
+        <v>1.074874032876712</v>
       </c>
       <c r="E20">
-        <v>0.9506079000000001</v>
+        <v>0.8881497486301367</v>
       </c>
       <c r="F20">
-        <v>1.087502641578947</v>
+        <v>1.10817437260274</v>
       </c>
       <c r="G20">
-        <v>0.9244841031578949</v>
+        <v>0.7836837772602737</v>
       </c>
       <c r="H20">
-        <v>0.9989847710526315</v>
+        <v>1.074874032876712</v>
       </c>
       <c r="I20">
-        <v>1.030155214736842</v>
+        <v>1.042642836986302</v>
       </c>
       <c r="J20">
-        <v>0.9244841031578949</v>
+        <v>0.7836837772602737</v>
       </c>
       <c r="K20">
-        <v>0.9989847710526315</v>
+        <v>1.074874032876712</v>
       </c>
       <c r="L20">
-        <v>1.030155214736842</v>
+        <v>1.042642836986302</v>
       </c>
       <c r="M20">
-        <v>0.9773196589473685</v>
+        <v>0.9131633071232879</v>
       </c>
       <c r="N20">
-        <v>0.9773196589473685</v>
+        <v>0.9131633071232879</v>
       </c>
       <c r="O20">
-        <v>0.9684157392982456</v>
+        <v>0.9048254542922375</v>
       </c>
       <c r="P20">
-        <v>0.9845413629824562</v>
+        <v>0.9670668823744292</v>
       </c>
       <c r="Q20">
-        <v>0.9845413629824562</v>
+        <v>0.9670668823744292</v>
       </c>
       <c r="R20">
-        <v>0.9881522150000001</v>
+        <v>0.99401867</v>
       </c>
       <c r="S20">
-        <v>0.9881522150000001</v>
+        <v>0.99401867</v>
       </c>
       <c r="T20">
-        <v>1.002133709561404</v>
+        <v>0.9915940755479452</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9837122756878457</v>
+        <v>1.023290529473684</v>
       </c>
       <c r="D21">
-        <v>1.001512414148788</v>
+        <v>1.029183077368421</v>
       </c>
       <c r="E21">
-        <v>1.03816226555251</v>
+        <v>0.9496715052631578</v>
       </c>
       <c r="F21">
-        <v>0.9317531221109095</v>
+        <v>1.053403889473684</v>
       </c>
       <c r="G21">
-        <v>1.058311512421291</v>
+        <v>0.9043287073684211</v>
       </c>
       <c r="H21">
-        <v>1.001512414148788</v>
+        <v>1.029183077368421</v>
       </c>
       <c r="I21">
-        <v>0.9763871249054838</v>
+        <v>1.020865610526316</v>
       </c>
       <c r="J21">
-        <v>1.058311512421291</v>
+        <v>0.9043287073684211</v>
       </c>
       <c r="K21">
-        <v>1.001512414148788</v>
+        <v>1.029183077368421</v>
       </c>
       <c r="L21">
-        <v>0.9763871249054838</v>
+        <v>1.020865610526316</v>
       </c>
       <c r="M21">
-        <v>1.017349318663387</v>
+        <v>0.9625971589473685</v>
       </c>
       <c r="N21">
-        <v>1.017349318663387</v>
+        <v>0.9625971589473685</v>
       </c>
       <c r="O21">
-        <v>1.024286967626428</v>
+        <v>0.9582886077192984</v>
       </c>
       <c r="P21">
-        <v>1.012070350491854</v>
+        <v>0.9847924650877194</v>
       </c>
       <c r="Q21">
-        <v>1.012070350491854</v>
+        <v>0.9847924650877192</v>
       </c>
       <c r="R21">
-        <v>1.009430866406088</v>
+        <v>0.9958901181578947</v>
       </c>
       <c r="S21">
-        <v>1.009430866406088</v>
+        <v>0.9958901181578947</v>
       </c>
       <c r="T21">
-        <v>0.9983064524711378</v>
+        <v>0.9967905532456139</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9948449706986171</v>
+        <v>1.021067626842105</v>
       </c>
       <c r="D22">
-        <v>0.9874287480611282</v>
+        <v>0.9989847710526315</v>
       </c>
       <c r="E22">
-        <v>1.010256403974374</v>
+        <v>0.9506079000000001</v>
       </c>
       <c r="F22">
-        <v>0.9969922374555918</v>
+        <v>1.087502641578947</v>
       </c>
       <c r="G22">
-        <v>1.023670121237644</v>
+        <v>0.9244841031578949</v>
       </c>
       <c r="H22">
-        <v>0.9874287480611282</v>
+        <v>0.9989847710526315</v>
       </c>
       <c r="I22">
-        <v>0.9978969190310238</v>
+        <v>1.030155214736842</v>
       </c>
       <c r="J22">
-        <v>1.023670121237644</v>
+        <v>0.9244841031578949</v>
       </c>
       <c r="K22">
-        <v>0.9874287480611282</v>
+        <v>0.9989847710526315</v>
       </c>
       <c r="L22">
-        <v>0.9978969190310238</v>
+        <v>1.030155214736842</v>
       </c>
       <c r="M22">
-        <v>1.010783520134334</v>
+        <v>0.9773196589473685</v>
       </c>
       <c r="N22">
-        <v>1.010783520134334</v>
+        <v>0.9773196589473685</v>
       </c>
       <c r="O22">
-        <v>1.01060781474768</v>
+        <v>0.9684157392982456</v>
       </c>
       <c r="P22">
-        <v>1.002998596109932</v>
+        <v>0.9845413629824562</v>
       </c>
       <c r="Q22">
-        <v>1.002998596109932</v>
+        <v>0.9845413629824562</v>
       </c>
       <c r="R22">
-        <v>0.999106134097731</v>
+        <v>0.9881522150000001</v>
       </c>
       <c r="S22">
-        <v>0.999106134097731</v>
+        <v>0.9881522150000001</v>
       </c>
       <c r="T22">
-        <v>1.00184823340973</v>
+        <v>1.002133709561404</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9836145422628851</v>
+        <v>0.9837122756878457</v>
       </c>
       <c r="D23">
-        <v>1.000686080058187</v>
+        <v>1.001512414148788</v>
       </c>
       <c r="E23">
-        <v>1.038172774574788</v>
+        <v>1.03816226555251</v>
       </c>
       <c r="F23">
-        <v>0.9328914451111769</v>
+        <v>0.9317531221109095</v>
       </c>
       <c r="G23">
-        <v>1.059174048155853</v>
+        <v>1.058311512421291</v>
       </c>
       <c r="H23">
-        <v>1.000686080058187</v>
+        <v>1.001512414148788</v>
       </c>
       <c r="I23">
-        <v>0.9765892316818462</v>
+        <v>0.9763871249054838</v>
       </c>
       <c r="J23">
-        <v>1.059174048155853</v>
+        <v>1.058311512421291</v>
       </c>
       <c r="K23">
-        <v>1.000686080058187</v>
+        <v>1.001512414148788</v>
       </c>
       <c r="L23">
-        <v>0.9765892316818462</v>
+        <v>0.9763871249054838</v>
       </c>
       <c r="M23">
-        <v>1.01788163991885</v>
+        <v>1.017349318663387</v>
       </c>
       <c r="N23">
-        <v>1.01788163991885</v>
+        <v>1.017349318663387</v>
       </c>
       <c r="O23">
-        <v>1.024645351470829</v>
+        <v>1.024286967626428</v>
       </c>
       <c r="P23">
-        <v>1.012149786631962</v>
+        <v>1.012070350491854</v>
       </c>
       <c r="Q23">
-        <v>1.012149786631962</v>
+        <v>1.012070350491854</v>
       </c>
       <c r="R23">
-        <v>1.009283859988518</v>
+        <v>1.009430866406088</v>
       </c>
       <c r="S23">
-        <v>1.009283859988518</v>
+        <v>1.009430866406088</v>
       </c>
       <c r="T23">
-        <v>0.9985213536407894</v>
+        <v>0.9983064524711378</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9949101431603906</v>
+        <v>0.9948449706986171</v>
       </c>
       <c r="D24">
-        <v>0.9876536891912983</v>
+        <v>0.9874287480611282</v>
       </c>
       <c r="E24">
-        <v>1.010273019781603</v>
+        <v>1.010256403974374</v>
       </c>
       <c r="F24">
-        <v>0.9964549133227598</v>
+        <v>0.9969922374555918</v>
       </c>
       <c r="G24">
-        <v>1.023103828471014</v>
+        <v>1.023670121237644</v>
       </c>
       <c r="H24">
-        <v>0.9876536891912983</v>
+        <v>0.9874287480611282</v>
       </c>
       <c r="I24">
-        <v>0.997896346735736</v>
+        <v>0.9978969190310238</v>
       </c>
       <c r="J24">
-        <v>1.023103828471014</v>
+        <v>1.023670121237644</v>
       </c>
       <c r="K24">
-        <v>0.9876536891912983</v>
+        <v>0.9874287480611282</v>
       </c>
       <c r="L24">
-        <v>0.997896346735736</v>
+        <v>0.9978969190310238</v>
       </c>
       <c r="M24">
-        <v>1.010500087603375</v>
+        <v>1.010783520134334</v>
       </c>
       <c r="N24">
-        <v>1.010500087603375</v>
+        <v>1.010783520134334</v>
       </c>
       <c r="O24">
-        <v>1.010424398329451</v>
+        <v>1.01060781474768</v>
       </c>
       <c r="P24">
-        <v>1.002884621466016</v>
+        <v>1.002998596109932</v>
       </c>
       <c r="Q24">
-        <v>1.002884621466016</v>
+        <v>1.002998596109932</v>
       </c>
       <c r="R24">
-        <v>0.9990768883973365</v>
+        <v>0.999106134097731</v>
       </c>
       <c r="S24">
-        <v>0.9990768883973365</v>
+        <v>0.999106134097731</v>
       </c>
       <c r="T24">
-        <v>1.0017153234438</v>
+        <v>1.00184823340973</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9835171172027188</v>
+        <v>0.9836145422628851</v>
       </c>
       <c r="D25">
-        <v>0.9998605269994659</v>
+        <v>1.000686080058187</v>
       </c>
       <c r="E25">
-        <v>1.038182670615201</v>
+        <v>1.038172774574788</v>
       </c>
       <c r="F25">
-        <v>0.9340299756612155</v>
+        <v>0.9328914451111769</v>
       </c>
       <c r="G25">
-        <v>1.060035224226006</v>
+        <v>1.059174048155853</v>
       </c>
       <c r="H25">
-        <v>0.9998605269994659</v>
+        <v>1.000686080058187</v>
       </c>
       <c r="I25">
-        <v>0.9767914421212887</v>
+        <v>0.9765892316818462</v>
       </c>
       <c r="J25">
-        <v>1.060035224226006</v>
+        <v>1.059174048155853</v>
       </c>
       <c r="K25">
-        <v>0.9998605269994659</v>
+        <v>1.000686080058187</v>
       </c>
       <c r="L25">
-        <v>0.9767914421212887</v>
+        <v>0.9765892316818462</v>
       </c>
       <c r="M25">
-        <v>1.018413333173647</v>
+        <v>1.01788163991885</v>
       </c>
       <c r="N25">
-        <v>1.018413333173647</v>
+        <v>1.01788163991885</v>
       </c>
       <c r="O25">
-        <v>1.025003112320832</v>
+        <v>1.024645351470829</v>
       </c>
       <c r="P25">
-        <v>1.01222906444892</v>
+        <v>1.012149786631962</v>
       </c>
       <c r="Q25">
-        <v>1.01222906444892</v>
+        <v>1.012149786631962</v>
       </c>
       <c r="R25">
-        <v>1.009136930086557</v>
+        <v>1.009283859988518</v>
       </c>
       <c r="S25">
-        <v>1.009136930086557</v>
+        <v>1.009283859988518</v>
       </c>
       <c r="T25">
-        <v>0.9987361594709826</v>
+        <v>0.9985213536407894</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9949753825452189</v>
+        <v>0.9949101431603906</v>
       </c>
       <c r="D26">
-        <v>0.9878784770977405</v>
+        <v>0.9876536891912983</v>
       </c>
       <c r="E26">
-        <v>1.010289494576945</v>
+        <v>1.010273019781603</v>
       </c>
       <c r="F26">
-        <v>0.9959179888459081</v>
+        <v>0.9964549133227598</v>
       </c>
       <c r="G26">
-        <v>1.022537305708381</v>
+        <v>1.023103828471014</v>
       </c>
       <c r="H26">
-        <v>0.9878784770977405</v>
+        <v>0.9876536891912983</v>
       </c>
       <c r="I26">
-        <v>0.9978959324035382</v>
+        <v>0.997896346735736</v>
       </c>
       <c r="J26">
-        <v>1.022537305708381</v>
+        <v>1.023103828471014</v>
       </c>
       <c r="K26">
-        <v>0.9878784770977405</v>
+        <v>0.9876536891912983</v>
       </c>
       <c r="L26">
-        <v>0.9978959324035382</v>
+        <v>0.997896346735736</v>
       </c>
       <c r="M26">
-        <v>1.01021661905596</v>
+        <v>1.010500087603375</v>
       </c>
       <c r="N26">
-        <v>1.01021661905596</v>
+        <v>1.010500087603375</v>
       </c>
       <c r="O26">
-        <v>1.010240910896288</v>
+        <v>1.010424398329451</v>
       </c>
       <c r="P26">
-        <v>1.002770571736553</v>
+        <v>1.002884621466016</v>
       </c>
       <c r="Q26">
-        <v>1.002770571736553</v>
+        <v>1.002884621466016</v>
       </c>
       <c r="R26">
-        <v>0.9990475480768501</v>
+        <v>0.9990768883973365</v>
       </c>
       <c r="S26">
-        <v>0.9990475480768501</v>
+        <v>0.9990768883973365</v>
       </c>
       <c r="T26">
-        <v>1.001582430196289</v>
+        <v>1.0017153234438</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.008181254781139</v>
+        <v>0.9835171172027188</v>
       </c>
       <c r="D27">
-        <v>1.009641983629471</v>
+        <v>0.9998605269994659</v>
       </c>
       <c r="E27">
-        <v>0.9823293269153269</v>
+        <v>1.038182670615201</v>
       </c>
       <c r="F27">
-        <v>1.019299586750895</v>
+        <v>0.9340299756612155</v>
       </c>
       <c r="G27">
-        <v>0.9664732425381248</v>
+        <v>1.060035224226006</v>
       </c>
       <c r="H27">
-        <v>1.009641983629471</v>
+        <v>0.9998605269994659</v>
       </c>
       <c r="I27">
-        <v>1.00758013732935</v>
+        <v>0.9767914421212887</v>
       </c>
       <c r="J27">
-        <v>0.9664732425381248</v>
+        <v>1.060035224226006</v>
       </c>
       <c r="K27">
-        <v>1.009641983629471</v>
+        <v>0.9998605269994659</v>
       </c>
       <c r="L27">
-        <v>1.00758013732935</v>
+        <v>0.9767914421212887</v>
       </c>
       <c r="M27">
-        <v>0.9870266899337377</v>
+        <v>1.018413333173647</v>
       </c>
       <c r="N27">
-        <v>0.9870266899337377</v>
+        <v>1.018413333173647</v>
       </c>
       <c r="O27">
-        <v>0.9854609022609341</v>
+        <v>1.025003112320832</v>
       </c>
       <c r="P27">
-        <v>0.9945651211656488</v>
+        <v>1.01222906444892</v>
       </c>
       <c r="Q27">
-        <v>0.9945651211656488</v>
+        <v>1.01222906444892</v>
       </c>
       <c r="R27">
-        <v>0.9983343367816043</v>
+        <v>1.009136930086557</v>
       </c>
       <c r="S27">
-        <v>0.9983343367816043</v>
+        <v>1.009136930086557</v>
       </c>
       <c r="T27">
-        <v>0.9989175886573843</v>
+        <v>0.9987361594709826</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9991914780642411</v>
+        <v>0.9949753825452189</v>
       </c>
       <c r="D28">
-        <v>1.008050350949294</v>
+        <v>0.9878784770977405</v>
       </c>
       <c r="E28">
-        <v>1.002714382240196</v>
+        <v>1.010289494576945</v>
       </c>
       <c r="F28">
-        <v>0.9862800216688802</v>
+        <v>0.9959179888459081</v>
       </c>
       <c r="G28">
-        <v>1.000222749143409</v>
+        <v>1.022537305708381</v>
       </c>
       <c r="H28">
-        <v>1.008050350949294</v>
+        <v>0.9878784770977405</v>
       </c>
       <c r="I28">
-        <v>0.9955458589260724</v>
+        <v>0.9978959324035382</v>
       </c>
       <c r="J28">
-        <v>1.000222749143409</v>
+        <v>1.022537305708381</v>
       </c>
       <c r="K28">
-        <v>1.008050350949294</v>
+        <v>0.9878784770977405</v>
       </c>
       <c r="L28">
-        <v>0.9955458589260724</v>
+        <v>0.9978959324035382</v>
       </c>
       <c r="M28">
-        <v>0.9978843040347407</v>
+        <v>1.01021661905596</v>
       </c>
       <c r="N28">
-        <v>0.9978843040347407</v>
+        <v>1.01021661905596</v>
       </c>
       <c r="O28">
-        <v>0.999494330103226</v>
+        <v>1.010240910896288</v>
       </c>
       <c r="P28">
-        <v>1.001272986339592</v>
+        <v>1.002770571736553</v>
       </c>
       <c r="Q28">
-        <v>1.001272986339592</v>
+        <v>1.002770571736553</v>
       </c>
       <c r="R28">
-        <v>1.002967327492017</v>
+        <v>0.9990475480768501</v>
       </c>
       <c r="S28">
-        <v>1.002967327492017</v>
+        <v>0.9990475480768501</v>
       </c>
       <c r="T28">
-        <v>0.9986674734986821</v>
+        <v>1.001582430196289</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.008181254781139</v>
+      </c>
+      <c r="D29">
+        <v>1.009641983629471</v>
+      </c>
+      <c r="E29">
+        <v>0.9823293269153269</v>
+      </c>
+      <c r="F29">
+        <v>1.019299586750895</v>
+      </c>
+      <c r="G29">
+        <v>0.9664732425381248</v>
+      </c>
+      <c r="H29">
+        <v>1.009641983629471</v>
+      </c>
+      <c r="I29">
+        <v>1.00758013732935</v>
+      </c>
+      <c r="J29">
+        <v>0.9664732425381248</v>
+      </c>
+      <c r="K29">
+        <v>1.009641983629471</v>
+      </c>
+      <c r="L29">
+        <v>1.00758013732935</v>
+      </c>
+      <c r="M29">
+        <v>0.9870266899337377</v>
+      </c>
+      <c r="N29">
+        <v>0.9870266899337377</v>
+      </c>
+      <c r="O29">
+        <v>0.9854609022609341</v>
+      </c>
+      <c r="P29">
+        <v>0.9945651211656488</v>
+      </c>
+      <c r="Q29">
+        <v>0.9945651211656488</v>
+      </c>
+      <c r="R29">
+        <v>0.9983343367816043</v>
+      </c>
+      <c r="S29">
+        <v>0.9983343367816043</v>
+      </c>
+      <c r="T29">
+        <v>0.9989175886573843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9991914780642411</v>
+      </c>
+      <c r="D30">
+        <v>1.008050350949294</v>
+      </c>
+      <c r="E30">
+        <v>1.002714382240196</v>
+      </c>
+      <c r="F30">
+        <v>0.9862800216688802</v>
+      </c>
+      <c r="G30">
+        <v>1.000222749143409</v>
+      </c>
+      <c r="H30">
+        <v>1.008050350949294</v>
+      </c>
+      <c r="I30">
+        <v>0.9955458589260724</v>
+      </c>
+      <c r="J30">
+        <v>1.000222749143409</v>
+      </c>
+      <c r="K30">
+        <v>1.008050350949294</v>
+      </c>
+      <c r="L30">
+        <v>0.9955458589260724</v>
+      </c>
+      <c r="M30">
+        <v>0.9978843040347407</v>
+      </c>
+      <c r="N30">
+        <v>0.9978843040347407</v>
+      </c>
+      <c r="O30">
+        <v>0.999494330103226</v>
+      </c>
+      <c r="P30">
+        <v>1.001272986339592</v>
+      </c>
+      <c r="Q30">
+        <v>1.001272986339592</v>
+      </c>
+      <c r="R30">
+        <v>1.002967327492017</v>
+      </c>
+      <c r="S30">
+        <v>1.002967327492017</v>
+      </c>
+      <c r="T30">
+        <v>0.9986674734986821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9752104390095824</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9869974243131384</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.056582060824473</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.915698902025607</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.093746879381462</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9869974243131384</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9703598313357444</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.093746879381462</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9869974243131384</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9703598313357444</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.032053355358603</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.032053355358603</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.040229590513893</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.017034711676782</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.017034711676782</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.009525389835871</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.009525389835871</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9997659228150013</v>
       </c>
     </row>
